--- a/wikidata/hal_field_audit_out/Wikidata_upec_chemical_20_rev2.xlsx
+++ b/wikidata/hal_field_audit_out/Wikidata_upec_chemical_20_rev2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanda\Documents\Langara_College\DANA-4850-001-Capstone_Project\hall-api-test-db-mysql\wikidata\hal_field_audit_out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{77957A64-D7B2-48B4-A394-30AB48AD44E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DCA4B8-A2E5-4E53-ABDE-841AFB2973D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B94CFD69-61F1-4950-B09D-9EE9202C93BD}"/>
   </bookViews>
@@ -22,12 +22,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Wikidata_upec_chemical_20!$A$1:$V$104</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="322">
   <si>
     <t>docid</t>
   </si>
@@ -122,9 +135,6 @@
     <t>Q1047113;Q1799072</t>
   </si>
   <si>
-    <t>method;field of study</t>
-  </si>
-  <si>
     <t>Identification of a new pseudo-binary hydroxide during calendar corrosion of (La, Mg)2Ni7-type hydrogen storage alloys for Nickel-Metal Hydride batteries</t>
   </si>
   <si>
@@ -140,9 +150,6 @@
     <t>11975888z</t>
   </si>
   <si>
-    <t>exact_label</t>
-  </si>
-  <si>
     <t>Q3382117</t>
   </si>
   <si>
@@ -179,9 +186,6 @@
     <t>Q327333;Q45400320;Q5509032;Q98675100</t>
   </si>
   <si>
-    <t>government agency;open-access publisher;vice-ministerial level institution;funding body</t>
-  </si>
-  <si>
     <t>Nucleophilic or Electrophilic Interactions of C2 with HX systems (X=F, Cl, Br)</t>
   </si>
   <si>
@@ -224,15 +228,6 @@
     <t>Q8074</t>
   </si>
   <si>
-    <t>11952827m</t>
-  </si>
-  <si>
-    <t>Q118733587</t>
-  </si>
-  <si>
-    <t>type of meteorological phenomenon</t>
-  </si>
-  <si>
     <t>And hazes</t>
   </si>
   <si>
@@ -314,30 +309,9 @@
     <t>Collagen</t>
   </si>
   <si>
-    <t>collagen</t>
-  </si>
-  <si>
-    <t>Q26868</t>
-  </si>
-  <si>
-    <t>Q5058355;Q78155096</t>
-  </si>
-  <si>
-    <t>family of protein complexes;cellular component</t>
-  </si>
-  <si>
     <t>Biosensors</t>
   </si>
   <si>
-    <t>biosensor</t>
-  </si>
-  <si>
-    <t>Q669391</t>
-  </si>
-  <si>
-    <t>12125424b</t>
-  </si>
-  <si>
     <t>Electrochemical biosensors: Recommended definitions and classification (Technical Report)</t>
   </si>
   <si>
@@ -347,30 +321,9 @@
     <t>Classification</t>
   </si>
   <si>
-    <t>classification</t>
-  </si>
-  <si>
-    <t>Q13582682</t>
-  </si>
-  <si>
-    <t>Q116505632</t>
-  </si>
-  <si>
-    <t>type of process</t>
-  </si>
-  <si>
     <t>Definition</t>
   </si>
   <si>
-    <t>definition</t>
-  </si>
-  <si>
-    <t>Q101072</t>
-  </si>
-  <si>
-    <t>11959122n</t>
-  </si>
-  <si>
     <t>Problems in Adapting a Glucose-Oxidase Electrochemical Sensor into an Implantable Glucose-Sensing Device</t>
   </si>
   <si>
@@ -389,27 +342,9 @@
     <t>Glucose</t>
   </si>
   <si>
-    <t>glucose</t>
-  </si>
-  <si>
-    <t>Q37525</t>
-  </si>
-  <si>
-    <t>Q136192523;Q15711994</t>
-  </si>
-  <si>
-    <t>group of isomeric entities;simple carbohydrates</t>
-  </si>
-  <si>
     <t>Glucose oxidase</t>
   </si>
   <si>
-    <t>glucose oxidase gox</t>
-  </si>
-  <si>
-    <t>Q98207203</t>
-  </si>
-  <si>
     <t>Q8054</t>
   </si>
   <si>
@@ -419,18 +354,6 @@
     <t>A glucose electrode using high-stability glucose-oxidase collagen membranes</t>
   </si>
   <si>
-    <t>glucose oxidase</t>
-  </si>
-  <si>
-    <t>Q419321</t>
-  </si>
-  <si>
-    <t>Q67015883</t>
-  </si>
-  <si>
-    <t>group or class of enzymes</t>
-  </si>
-  <si>
     <t>From Alchemy to modern Chemistry: the concept of Chemical binding</t>
   </si>
   <si>
@@ -461,36 +384,9 @@
     <t>Waste water treatment plant</t>
   </si>
   <si>
-    <t>Waste Water Treatment Plant</t>
-  </si>
-  <si>
-    <t>Q116719041</t>
-  </si>
-  <si>
-    <t>Q1003207</t>
-  </si>
-  <si>
-    <t>photovoltaic power station</t>
-  </si>
-  <si>
     <t>Oxygen</t>
   </si>
   <si>
-    <t>oxygen</t>
-  </si>
-  <si>
-    <t>Q629</t>
-  </si>
-  <si>
-    <t>11977353d</t>
-  </si>
-  <si>
-    <t>Q1130479;Q11344;Q19600</t>
-  </si>
-  <si>
-    <t>chemical element;lithophile;nonmetal</t>
-  </si>
-  <si>
     <t>Activated sludge</t>
   </si>
   <si>
@@ -503,21 +399,12 @@
     <t>Redox potential</t>
   </si>
   <si>
-    <t>redox potential</t>
-  </si>
-  <si>
-    <t>Q1640043</t>
-  </si>
-  <si>
     <t>Influence of calcium on glucose biosensor response and on hydrogen peroxide detection</t>
   </si>
   <si>
     <t>Glucose sensor</t>
   </si>
   <si>
-    <t>Q126364723</t>
-  </si>
-  <si>
     <t>Calcium</t>
   </si>
   <si>
@@ -557,15 +444,6 @@
     <t>Platinum</t>
   </si>
   <si>
-    <t>Q80139</t>
-  </si>
-  <si>
-    <t>Q1093829</t>
-  </si>
-  <si>
-    <t>city in the United States</t>
-  </si>
-  <si>
     <t>Electrochemical biosensors: recommended definitions and classification</t>
   </si>
   <si>
@@ -626,57 +504,15 @@
     <t>heavy metal</t>
   </si>
   <si>
-    <t>Q38848</t>
-  </si>
-  <si>
-    <t>Q14946528;Q188451</t>
-  </si>
-  <si>
-    <t>music genre;conflation</t>
-  </si>
-  <si>
     <t>Budget</t>
   </si>
   <si>
-    <t>budget</t>
-  </si>
-  <si>
-    <t>Q41263</t>
-  </si>
-  <si>
-    <t>Q1047113;Q2267705</t>
-  </si>
-  <si>
-    <t>field of study;field of study</t>
-  </si>
-  <si>
     <t>Seine</t>
   </si>
   <si>
-    <t>Q1471</t>
-  </si>
-  <si>
-    <t>Q4022;Q573344</t>
-  </si>
-  <si>
-    <t>river;main stem</t>
-  </si>
-  <si>
     <t>River</t>
   </si>
   <si>
-    <t>river</t>
-  </si>
-  <si>
-    <t>Q4022</t>
-  </si>
-  <si>
-    <t>Q125824188;Q1428660</t>
-  </si>
-  <si>
-    <t>ecosystem type;type of watercourse</t>
-  </si>
-  <si>
     <t>Ni</t>
   </si>
   <si>
@@ -695,15 +531,6 @@
     <t>Trace elements</t>
   </si>
   <si>
-    <t>trace element</t>
-  </si>
-  <si>
-    <t>Q351792</t>
-  </si>
-  <si>
-    <t>11975502k</t>
-  </si>
-  <si>
     <t>Ab initio investigations on the CaO&lt;sup&gt;2+&lt;/sup&gt; dication</t>
   </si>
   <si>
@@ -722,18 +549,6 @@
     <t>CaO</t>
   </si>
   <si>
-    <t>Cao</t>
-  </si>
-  <si>
-    <t>Q710706</t>
-  </si>
-  <si>
-    <t>Q101352;Q1093580;Q11420694</t>
-  </si>
-  <si>
-    <t>royal surname;family name;Chinese family name</t>
-  </si>
-  <si>
     <t>Calcium monoxide</t>
   </si>
   <si>
@@ -782,12 +597,6 @@
     <t>BLENDS</t>
   </si>
   <si>
-    <t>blend</t>
-  </si>
-  <si>
-    <t>Q12055133</t>
-  </si>
-  <si>
     <t>NANOPARTICLES</t>
   </si>
   <si>
@@ -828,6 +637,375 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>National Society of Film Critics</t>
+  </si>
+  <si>
+    <t>Q1206671</t>
+  </si>
+  <si>
+    <t>electrospray ionization</t>
+  </si>
+  <si>
+    <t>Q902061</t>
+  </si>
+  <si>
+    <t>Monte Carlo method</t>
+  </si>
+  <si>
+    <t>Q232207</t>
+  </si>
+  <si>
+    <t>Q583461</t>
+  </si>
+  <si>
+    <t>randomized algorithm</t>
+  </si>
+  <si>
+    <t>polyatomic anion</t>
+  </si>
+  <si>
+    <t>Q55511438</t>
+  </si>
+  <si>
+    <t>DNA microarray</t>
+  </si>
+  <si>
+    <t>Q591745</t>
+  </si>
+  <si>
+    <t>secrecy</t>
+  </si>
+  <si>
+    <t>Q1503443</t>
+  </si>
+  <si>
+    <t>Q100195948</t>
+  </si>
+  <si>
+    <t>relative quality</t>
+  </si>
+  <si>
+    <t>history of chemistry</t>
+  </si>
+  <si>
+    <t>Q501353</t>
+  </si>
+  <si>
+    <t>Q17524420</t>
+  </si>
+  <si>
+    <t>aspect of history</t>
+  </si>
+  <si>
+    <t>wastewater treatment plant</t>
+  </si>
+  <si>
+    <t>Q15242449</t>
+  </si>
+  <si>
+    <t>reduction potential</t>
+  </si>
+  <si>
+    <t>Q186487</t>
+  </si>
+  <si>
+    <t>SNF3</t>
+  </si>
+  <si>
+    <t>Q7547717</t>
+  </si>
+  <si>
+    <t>Q7187</t>
+  </si>
+  <si>
+    <t>gene</t>
+  </si>
+  <si>
+    <t>Q3624078;Q6256</t>
+  </si>
+  <si>
+    <t>sovereign state;country</t>
+  </si>
+  <si>
+    <t>copper</t>
+  </si>
+  <si>
+    <t>Q753</t>
+  </si>
+  <si>
+    <t>Q11344;Q1929547;Q2512777</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Q974</t>
+  </si>
+  <si>
+    <t>13339496v</t>
+  </si>
+  <si>
+    <t>United Nations</t>
+  </si>
+  <si>
+    <t>Q1065</t>
+  </si>
+  <si>
+    <t>Q245065;Q484652</t>
+  </si>
+  <si>
+    <t>international organization;intergovernmental organization</t>
+  </si>
+  <si>
+    <t>mercury</t>
+  </si>
+  <si>
+    <t>Q925</t>
+  </si>
+  <si>
+    <t>11948174f</t>
+  </si>
+  <si>
+    <t>Q106192073;Q11344;Q11426;Q1929547</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>Q708</t>
+  </si>
+  <si>
+    <t>Q106192073;Q11344;Q1929547;Q2512777</t>
+  </si>
+  <si>
+    <t>Q105789</t>
+  </si>
+  <si>
+    <t>Non-Inscrits</t>
+  </si>
+  <si>
+    <t>Q1440626</t>
+  </si>
+  <si>
+    <t>Q2415493;Q779079</t>
+  </si>
+  <si>
+    <t>microelement</t>
+  </si>
+  <si>
+    <t>Q11781028</t>
+  </si>
+  <si>
+    <t>spinâ€“orbit interaction</t>
+  </si>
+  <si>
+    <t>Q1570979</t>
+  </si>
+  <si>
+    <t>calcium oxide</t>
+  </si>
+  <si>
+    <t>Q185006</t>
+  </si>
+  <si>
+    <t>mechanical property</t>
+  </si>
+  <si>
+    <t>Q5725005</t>
+  </si>
+  <si>
+    <t>12088335h</t>
+  </si>
+  <si>
+    <t>union</t>
+  </si>
+  <si>
+    <t>Q17853087</t>
+  </si>
+  <si>
+    <t>blindness</t>
+  </si>
+  <si>
+    <t>Q10874</t>
+  </si>
+  <si>
+    <t>11976340t</t>
+  </si>
+  <si>
+    <t>Q112193867;Q112965645</t>
+  </si>
+  <si>
+    <t>symptom or sign;class of disease</t>
+  </si>
+  <si>
+    <t>exact_safety_net</t>
+  </si>
+  <si>
+    <t>Chemical vapor deposition</t>
+  </si>
+  <si>
+    <t>Q505668</t>
+  </si>
+  <si>
+    <t>Tem</t>
+  </si>
+  <si>
+    <t>Q36531</t>
+  </si>
+  <si>
+    <t>12167223r</t>
+  </si>
+  <si>
+    <t>Q1288568;Q34770</t>
+  </si>
+  <si>
+    <t>chromium</t>
+  </si>
+  <si>
+    <t>Q725</t>
+  </si>
+  <si>
+    <t>12104829h</t>
+  </si>
+  <si>
+    <t>Q1130479;Q11344</t>
+  </si>
+  <si>
+    <t>chemical element;lithophile</t>
+  </si>
+  <si>
+    <t>transmission electron microscope</t>
+  </si>
+  <si>
+    <t>Q744818</t>
+  </si>
+  <si>
+    <t>collage</t>
+  </si>
+  <si>
+    <t>Q22669857</t>
+  </si>
+  <si>
+    <t>Q1792644</t>
+  </si>
+  <si>
+    <t>art style</t>
+  </si>
+  <si>
+    <t>ontology concept definition</t>
+  </si>
+  <si>
+    <t>Q106205899</t>
+  </si>
+  <si>
+    <t>aldehydo-D-glucose</t>
+  </si>
+  <si>
+    <t>Q21036645</t>
+  </si>
+  <si>
+    <t>CPSG_04633-t26_1</t>
+  </si>
+  <si>
+    <t>Q62863961</t>
+  </si>
+  <si>
+    <t>Glucose dehydrogenase Dmel_CG1152</t>
+  </si>
+  <si>
+    <t>Q29814692</t>
+  </si>
+  <si>
+    <t>graphical widget</t>
+  </si>
+  <si>
+    <t>Q605117</t>
+  </si>
+  <si>
+    <t>dioxygen</t>
+  </si>
+  <si>
+    <t>Q5203615</t>
+  </si>
+  <si>
+    <t>Essentials</t>
+  </si>
+  <si>
+    <t>Q2605789</t>
+  </si>
+  <si>
+    <t>Q3646467</t>
+  </si>
+  <si>
+    <t>budget range</t>
+  </si>
+  <si>
+    <t>chemical element;chalcophile element;simple substance</t>
+  </si>
+  <si>
+    <t>chemical element;chalcophile element;superconducting element;metal</t>
+  </si>
+  <si>
+    <t>chemical element;chalcophile element;superconducting element;simple substance</t>
+  </si>
+  <si>
+    <t>government budget</t>
+  </si>
+  <si>
+    <t>Q271855</t>
+  </si>
+  <si>
+    <t>scythe</t>
+  </si>
+  <si>
+    <t>Q130912</t>
+  </si>
+  <si>
+    <t>Q15142889;Q3629395</t>
+  </si>
+  <si>
+    <t>agricultural tool;weapon family</t>
+  </si>
+  <si>
+    <t>watercourse</t>
+  </si>
+  <si>
+    <t>Q355304</t>
+  </si>
+  <si>
+    <t>11952208p</t>
+  </si>
+  <si>
+    <t>Q12046615</t>
+  </si>
+  <si>
+    <t>feature type</t>
+  </si>
+  <si>
+    <t>political group of the European Parliament;non-attached</t>
+  </si>
+  <si>
+    <t>field of study;method</t>
+  </si>
+  <si>
+    <t>Mod2b vs 2a</t>
+  </si>
+  <si>
+    <t>Q110548120</t>
+  </si>
+  <si>
+    <t>Q11060274;Q18218093;Q838948</t>
+  </si>
+  <si>
+    <t>language;modern language</t>
+  </si>
+  <si>
+    <t>funding body;open-access publisher;government agency;vice-ministerial level institution</t>
+  </si>
+  <si>
+    <t>print;work of art;etching print</t>
   </si>
 </sst>
 </file>
@@ -970,7 +1148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1174,6 +1352,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1335,12 +1525,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6091,6 +6283,8 @@
           <cell r="S52" t="str">
             <v>ok</v>
           </cell>
+          <cell r="T52"/>
+          <cell r="U52"/>
         </row>
         <row r="53">
           <cell r="C53" t="str">
@@ -6266,6 +6460,8 @@
           <cell r="S57" t="str">
             <v>ok</v>
           </cell>
+          <cell r="T57"/>
+          <cell r="U57"/>
         </row>
         <row r="58">
           <cell r="C58" t="str">
@@ -8493,112 +8689,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B0F430-0357-4ED2-80C0-C755800CD5D2}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:Y106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I118" sqref="I118"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>260</v>
+        <v>192</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>262</v>
+        <v>194</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>264</v>
+        <v>196</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>1006198</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
       <c r="O2" s="1">
         <f>VLOOKUP(C2,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -8623,37 +8830,56 @@
         <f>E2</f>
         <v>0</v>
       </c>
-      <c r="U2" s="3"/>
+      <c r="U2" s="3" t="str">
+        <f>R2</f>
+        <v>ok</v>
+      </c>
       <c r="V2" s="3" t="str">
         <f>IF(T2&lt;&gt;Q2,"Mod","")</f>
         <v/>
       </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3" t="str">
+        <f>IF(X2&lt;&gt;E2,"Mod","")</f>
+        <v/>
+      </c>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>1006198</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
       <c r="O3" s="1">
         <f>VLOOKUP(C3,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -8678,43 +8904,60 @@
         <f t="shared" ref="T3:T66" si="0">E3</f>
         <v>0</v>
       </c>
-      <c r="U3" s="3"/>
+      <c r="U3" s="3" t="str">
+        <f t="shared" ref="U3:U66" si="1">R3</f>
+        <v>ok</v>
+      </c>
       <c r="V3" s="3" t="str">
-        <f t="shared" ref="V3:V66" si="1">IF(T3&lt;&gt;Q3,"Mod","")</f>
+        <f t="shared" ref="V3:V67" si="2">IF(T3&lt;&gt;Q3,"Mod","")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3" t="str">
+        <f t="shared" ref="Y3:Y66" si="3">IF(X3&lt;&gt;E3,"Mod","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>1006198</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="6">
         <v>100</v>
       </c>
-      <c r="L4">
-        <v>146.30000000000001</v>
-      </c>
+      <c r="L4" s="6">
+        <v>137.1</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
       <c r="O4" s="1" t="str">
         <f>VLOOKUP(C4,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>Q3268911</v>
@@ -8739,37 +8982,56 @@
         <f t="shared" si="0"/>
         <v>Q3268911</v>
       </c>
-      <c r="U4" s="3"/>
+      <c r="U4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V4" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>1006198</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H5" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
       <c r="O5" s="1">
         <f>VLOOKUP(C5,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -8794,37 +9056,56 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U5" s="3"/>
+      <c r="U5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V5" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>1006198</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="1">
         <f>VLOOKUP(C6,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -8849,37 +9130,60 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U6" s="3"/>
+      <c r="U6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V6" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>1006198</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="D7" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
+      <c r="K7" s="6">
+        <v>100</v>
+      </c>
+      <c r="L7" s="6">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
       <c r="O7" s="1">
         <f>VLOOKUP(C7,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -8900,41 +9204,59 @@
         <f>VLOOKUP(C7,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v/>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="3"/>
+        <v>Q505668</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="V7" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>Mod</v>
+      </c>
+      <c r="W7" t="s">
+        <v>267</v>
+      </c>
+      <c r="X7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y7" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>1006198</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H8" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
       <c r="O8" s="1">
         <f>VLOOKUP(C8,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -8959,51 +9281,65 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U8" s="3"/>
+      <c r="U8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V8" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>1006198</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K9">
-        <v>95.2</v>
-      </c>
-      <c r="L9">
-        <v>252.7</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="K9" s="6">
+        <v>100</v>
+      </c>
+      <c r="L9" s="6">
+        <v>222.4</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N9" t="s">
-        <v>31</v>
+      <c r="N9" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="O9" s="1" t="str">
         <f>VLOOKUP(C9,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -9029,51 +9365,65 @@
         <f t="shared" si="0"/>
         <v>Q2334061</v>
       </c>
-      <c r="U9" s="3"/>
+      <c r="U9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V9" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y9" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>1025697</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="6">
+        <v>100</v>
+      </c>
+      <c r="L10" s="6">
+        <v>165</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H10" t="s">
+      <c r="N10" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10">
-        <v>100</v>
-      </c>
-      <c r="L10">
-        <v>50</v>
-      </c>
-      <c r="M10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" t="s">
-        <v>39</v>
       </c>
       <c r="O10" s="1" t="str">
         <f>VLOOKUP(C10,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -9099,37 +9449,55 @@
         <f t="shared" si="0"/>
         <v>Q137056</v>
       </c>
-      <c r="U10" s="3"/>
+      <c r="U10" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="V10" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y10" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>1025697</v>
       </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
       <c r="O11" s="1">
         <f>VLOOKUP(C11,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -9154,37 +9522,56 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U11" s="3"/>
+      <c r="U11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V11" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>1025697</v>
       </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="B12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
       <c r="O12" s="1">
         <f>VLOOKUP(C12,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -9209,36 +9596,65 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U12" s="3"/>
+      <c r="U12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V12" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>1025697</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
+      <c r="K13" s="6">
+        <v>100</v>
+      </c>
+      <c r="L13" s="6">
+        <v>120.3</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="O13" s="1" t="str">
         <f>VLOOKUP(C13,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -9260,41 +9676,59 @@
         <f>VLOOKUP(C13,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v>Mod</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>Q36531</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="V13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Mod</v>
+      </c>
+      <c r="W13" t="s">
+        <v>278</v>
+      </c>
+      <c r="X13" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mod</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>1025697</v>
       </c>
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="B14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
       <c r="O14" s="1">
         <f>VLOOKUP(C14,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -9319,37 +9753,56 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U14" s="3"/>
+      <c r="U14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V14" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>1060481</v>
       </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="6">
         <v>20902069</v>
       </c>
-      <c r="H15" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
       <c r="O15" s="1">
         <f>VLOOKUP(C15,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -9374,36 +9827,63 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U15" s="3"/>
+      <c r="U15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V15" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>1060481</v>
       </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="E16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
+      <c r="K16" s="6">
+        <v>100</v>
+      </c>
+      <c r="L16" s="6">
+        <v>61</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>320</v>
       </c>
       <c r="O16" s="1">
         <f>VLOOKUP(C16,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -9425,52 +9905,67 @@
         <f>VLOOKUP(C16,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v/>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3" t="str">
+        <v>Q4501917</v>
+      </c>
+      <c r="U16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>ok</v>
+      </c>
+      <c r="V16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Mod</v>
+      </c>
+      <c r="W16" t="s">
+        <v>199</v>
+      </c>
+      <c r="X16" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y16" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mod</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>1060481</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="6">
+        <v>100</v>
+      </c>
+      <c r="L17" s="6">
+        <v>79.8</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17">
-        <v>100</v>
-      </c>
-      <c r="L17">
-        <v>50</v>
-      </c>
-      <c r="M17" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" t="s">
-        <v>50</v>
+      <c r="N17" s="6" t="s">
+        <v>320</v>
       </c>
       <c r="O17" s="1" t="str">
         <f>VLOOKUP(C17,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -9496,37 +9991,56 @@
         <f t="shared" si="0"/>
         <v>Q4501917</v>
       </c>
-      <c r="U17" s="3"/>
+      <c r="U17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V17" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W17" t="s">
+        <v>45</v>
+      </c>
+      <c r="X17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y17" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>1060481</v>
       </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6">
         <v>21074094</v>
       </c>
-      <c r="H18" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
       <c r="O18" s="1">
         <f>VLOOKUP(C18,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -9551,37 +10065,56 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U18" s="3"/>
+      <c r="U18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V18" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>1060481</v>
       </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="6">
         <v>51173134</v>
       </c>
-      <c r="H19" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
       <c r="O19" s="1">
         <f>VLOOKUP(C19,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -9606,37 +10139,56 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U19" s="3"/>
+      <c r="U19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V19" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>1064801</v>
       </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="B20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
       <c r="O20" s="1">
         <f>VLOOKUP(C20,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -9661,37 +10213,56 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U20" s="3"/>
+      <c r="U20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>1064801</v>
       </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="B21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
       <c r="O21" s="1">
         <f>VLOOKUP(C21,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -9716,37 +10287,56 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U21" s="3"/>
+      <c r="U21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V21" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>1064801</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
       <c r="O22" s="1">
         <f>VLOOKUP(C22,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -9771,48 +10361,63 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U22" s="3"/>
+      <c r="U22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V22" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>1064801</v>
       </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="6">
+        <v>96.8</v>
+      </c>
+      <c r="L23" s="6">
+        <v>141.9</v>
+      </c>
+      <c r="M23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D23" t="s">
+      <c r="N23" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="E23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23">
-        <v>100</v>
-      </c>
-      <c r="L23">
-        <v>50</v>
-      </c>
-      <c r="M23" t="s">
-        <v>58</v>
-      </c>
-      <c r="N23" t="s">
-        <v>59</v>
       </c>
       <c r="O23" s="1" t="str">
         <f>VLOOKUP(C23,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -9838,37 +10443,56 @@
         <f t="shared" si="0"/>
         <v>Q1572088</v>
       </c>
-      <c r="U23" s="3"/>
+      <c r="U23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V23" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W23" t="s">
+        <v>53</v>
+      </c>
+      <c r="X23" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y23" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>1067996</v>
       </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="B24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
       <c r="O24" s="1">
         <f>VLOOKUP(C24,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -9893,51 +10517,63 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U24" s="3"/>
+      <c r="U24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V24" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>1067996</v>
       </c>
-      <c r="B25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-      <c r="I25" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="B25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="6">
         <v>100</v>
       </c>
-      <c r="L25">
-        <v>50</v>
-      </c>
-      <c r="M25" t="s">
-        <v>66</v>
-      </c>
-      <c r="N25" t="s">
-        <v>67</v>
+      <c r="L25" s="6">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="O25" s="1" t="str">
         <f>VLOOKUP(C25,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -9961,39 +10597,58 @@
       </c>
       <c r="T25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q8074</v>
-      </c>
-      <c r="U25" s="3"/>
+        <v>Q110548120</v>
+      </c>
+      <c r="U25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V25" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>Mod</v>
+      </c>
+      <c r="W25" t="s">
+        <v>60</v>
+      </c>
+      <c r="X25" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y25" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>Mod</v>
       </c>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>1067996</v>
       </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="B26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
       <c r="O26" s="1">
         <f>VLOOKUP(C26,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -10018,37 +10673,56 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U26" s="3"/>
+      <c r="U26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V26" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>1067996</v>
       </c>
-      <c r="B27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" t="s">
-        <v>69</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="B27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
       <c r="O27" s="1">
         <f>VLOOKUP(C27,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -10073,37 +10747,56 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U27" s="3"/>
+      <c r="U27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V27" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>1067996</v>
       </c>
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="B28" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
       <c r="O28" s="1">
         <f>VLOOKUP(C28,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -10128,21 +10821,34 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U28" s="3"/>
+      <c r="U28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V28" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1078652</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H29" t="s">
         <v>16</v>
@@ -10183,42 +10889,55 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U29" s="3"/>
+      <c r="U29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V29" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1078652</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H30" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="J30" t="s">
         <v>17</v>
       </c>
       <c r="K30">
-        <v>88.9</v>
+        <v>100</v>
       </c>
       <c r="L30">
-        <v>110.9</v>
+        <v>109.9</v>
       </c>
       <c r="O30" s="1" t="str">
         <f>VLOOKUP(C30,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -10244,36 +10963,55 @@
         <f t="shared" si="0"/>
         <v>Q7135015</v>
       </c>
-      <c r="U30" s="3"/>
+      <c r="U30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V30" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W30" t="s">
+        <v>68</v>
+      </c>
+      <c r="X30" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y30" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1078652</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" t="s">
+        <v>202</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="I31" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="J31" t="s">
         <v>17</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>98.9</v>
       </c>
       <c r="O31" s="1">
         <f>VLOOKUP(C31,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -10295,25 +11033,38 @@
         <f>VLOOKUP(C31,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v/>
       </c>
-      <c r="T31" s="3">
+      <c r="T31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3" t="str">
+        <v>Q902061</v>
+      </c>
+      <c r="U31" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="V31" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Mod</v>
+      </c>
+      <c r="W31" t="s">
+        <v>201</v>
+      </c>
+      <c r="X31" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y31" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1078652</v>
       </c>
       <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
         <v>71</v>
-      </c>
-      <c r="C32" t="s">
-        <v>77</v>
       </c>
       <c r="H32" t="s">
         <v>16</v>
@@ -10354,21 +11105,34 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U32" s="3"/>
+      <c r="U32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V32" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1078652</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
@@ -10409,42 +11173,55 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U33" s="3"/>
+      <c r="U33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V33" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1078652</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J34" t="s">
         <v>17</v>
       </c>
       <c r="K34">
-        <v>100</v>
+        <v>97.6</v>
       </c>
       <c r="L34">
-        <v>50</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="O34" s="1" t="str">
         <f>VLOOKUP(C34,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -10470,36 +11247,61 @@
         <f t="shared" si="0"/>
         <v>Q25305554</v>
       </c>
-      <c r="U34" s="3"/>
+      <c r="U34" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V34" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W34" t="s">
+        <v>74</v>
+      </c>
+      <c r="X34" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y34" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1078652</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" t="s">
+        <v>204</v>
       </c>
       <c r="H35" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J35" t="s">
         <v>17</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>97.8</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>147.9</v>
+      </c>
+      <c r="M35" t="s">
+        <v>205</v>
+      </c>
+      <c r="N35" t="s">
+        <v>206</v>
       </c>
       <c r="O35" s="1" t="str">
         <f>VLOOKUP(C35,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -10521,25 +11323,38 @@
         <f>VLOOKUP(C35,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v>Mod</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3" t="str">
+        <v>Q232207</v>
+      </c>
+      <c r="U35" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="V35" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Mod</v>
+      </c>
+      <c r="W35" t="s">
+        <v>203</v>
+      </c>
+      <c r="X35" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y35" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1078896</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s">
         <v>16</v>
@@ -10580,48 +11395,61 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U36" s="3"/>
+      <c r="U36" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V36" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1078896</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E37" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J37" t="s">
         <v>17</v>
       </c>
       <c r="K37">
-        <v>100</v>
+        <v>96.3</v>
       </c>
       <c r="L37">
-        <v>50</v>
+        <v>216.3</v>
       </c>
       <c r="M37" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N37" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="O37" s="1" t="str">
         <f>VLOOKUP(C37,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -10647,36 +11475,61 @@
         <f t="shared" si="0"/>
         <v>Q215328</v>
       </c>
-      <c r="U37" s="3"/>
+      <c r="U37" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V37" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W37" t="s">
+        <v>80</v>
+      </c>
+      <c r="X37" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y37" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1078896</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>84</v>
+      </c>
+      <c r="D38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E38" t="s">
+        <v>208</v>
       </c>
       <c r="H38" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J38" t="s">
         <v>17</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>96.8</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>86.5</v>
+      </c>
+      <c r="M38" t="s">
+        <v>55</v>
+      </c>
+      <c r="N38" t="s">
+        <v>56</v>
       </c>
       <c r="O38" s="1">
         <f>VLOOKUP(C38,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -10698,25 +11551,38 @@
         <f>VLOOKUP(C38,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v/>
       </c>
-      <c r="T38" s="3">
+      <c r="T38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3" t="str">
+        <v>Q55511438</v>
+      </c>
+      <c r="U38" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="V38" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Mod</v>
+      </c>
+      <c r="W38" t="s">
+        <v>207</v>
+      </c>
+      <c r="X38" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y38" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1083001</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s">
         <v>16</v>
@@ -10757,21 +11623,34 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U39" s="3"/>
+      <c r="U39" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V39" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1083001</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s">
         <v>16</v>
@@ -10812,33 +11691,46 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U40" s="3"/>
+      <c r="U40" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V40" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1083001</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>280</v>
       </c>
       <c r="E41" t="s">
-        <v>96</v>
+        <v>281</v>
       </c>
       <c r="H41" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="I41" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="J41" t="s">
         <v>17</v>
@@ -10847,13 +11739,13 @@
         <v>100</v>
       </c>
       <c r="L41">
-        <v>50</v>
+        <v>90.8</v>
       </c>
       <c r="M41" t="s">
-        <v>97</v>
+        <v>282</v>
       </c>
       <c r="N41" t="s">
-        <v>98</v>
+        <v>283</v>
       </c>
       <c r="O41" s="1" t="str">
         <f>VLOOKUP(C41,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -10877,47 +11769,57 @@
       </c>
       <c r="T41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q26868</v>
-      </c>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3" t="str">
+        <v>Q22669857</v>
+      </c>
+      <c r="U41" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="V41" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Mod</v>
+      </c>
+      <c r="W41" t="s">
+        <v>280</v>
+      </c>
+      <c r="X41" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y41" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1083001</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F42" t="s">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="H42" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J42" t="s">
         <v>17</v>
       </c>
       <c r="K42">
-        <v>100</v>
+        <v>94.7</v>
       </c>
       <c r="L42">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="O42" s="1" t="str">
         <f>VLOOKUP(C42,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -10941,23 +11843,36 @@
       </c>
       <c r="T42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q669391</v>
-      </c>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3" t="str">
+        <v>Q591745</v>
+      </c>
+      <c r="U42" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="V42" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Mod</v>
+      </c>
+      <c r="W42" t="s">
+        <v>209</v>
+      </c>
+      <c r="X42" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y42" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1083004</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s">
         <v>16</v>
@@ -10998,36 +11913,46 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U43" s="3"/>
+      <c r="U43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V43" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1083004</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
-      </c>
-      <c r="F44">
-        <v>133183064</v>
+        <v>212</v>
       </c>
       <c r="H44" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="I44" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="J44" t="s">
         <v>17</v>
@@ -11036,13 +11961,13 @@
         <v>100</v>
       </c>
       <c r="L44">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="M44" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="N44" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="O44" s="1" t="str">
         <f>VLOOKUP(C44,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -11066,38 +11991,48 @@
       </c>
       <c r="T44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q13582682</v>
-      </c>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3" t="str">
+        <v>Q1503443</v>
+      </c>
+      <c r="U44" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="V44" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Mod</v>
+      </c>
+      <c r="W44" t="s">
+        <v>211</v>
+      </c>
+      <c r="X44" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y44" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1083004</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>284</v>
       </c>
       <c r="E45" t="s">
-        <v>112</v>
-      </c>
-      <c r="F45" t="s">
-        <v>113</v>
+        <v>285</v>
       </c>
       <c r="H45" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="I45" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="J45" t="s">
         <v>17</v>
@@ -11106,7 +12041,7 @@
         <v>100</v>
       </c>
       <c r="L45">
-        <v>50</v>
+        <v>102.9</v>
       </c>
       <c r="O45" s="1" t="str">
         <f>VLOOKUP(C45,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -11130,25 +12065,36 @@
       </c>
       <c r="T45" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q101072</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="V45" s="4" t="str">
+        <v>Q106205899</v>
+      </c>
+      <c r="U45" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>Wrong</v>
+      </c>
+      <c r="V45" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>Mod</v>
       </c>
+      <c r="W45" t="s">
+        <v>284</v>
+      </c>
+      <c r="X45" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y45" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
-    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1083007</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s">
         <v>16</v>
@@ -11189,33 +12135,46 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U46" s="3"/>
+      <c r="U46" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V46" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1083007</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="H47" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="I47" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="J47" t="s">
         <v>17</v>
@@ -11224,13 +12183,13 @@
         <v>100</v>
       </c>
       <c r="L47">
-        <v>237.4</v>
+        <v>171.9</v>
       </c>
       <c r="M47" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="N47" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="O47" s="1" t="str">
         <f>VLOOKUP(C47,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -11256,33 +12215,46 @@
         <f t="shared" si="0"/>
         <v>Q124665234</v>
       </c>
-      <c r="U47" s="3"/>
+      <c r="U47" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>Wrong</v>
+      </c>
       <c r="V47" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W47" t="s">
+        <v>95</v>
+      </c>
+      <c r="X47" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y47" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1083007</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>286</v>
       </c>
       <c r="E48" t="s">
-        <v>121</v>
+        <v>287</v>
       </c>
       <c r="H48" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="I48" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="J48" t="s">
         <v>17</v>
@@ -11291,13 +12263,13 @@
         <v>100</v>
       </c>
       <c r="L48">
-        <v>50</v>
+        <v>86.9</v>
       </c>
       <c r="M48" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="N48" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="O48" s="1" t="str">
         <f>VLOOKUP(C48,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -11321,50 +12293,63 @@
       </c>
       <c r="T48" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q37525</v>
-      </c>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3" t="str">
+        <v>Q21036645</v>
+      </c>
+      <c r="U48" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="V48" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Mod</v>
+      </c>
+      <c r="W48" t="s">
+        <v>286</v>
+      </c>
+      <c r="X48" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y48" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1083007</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
+        <v>288</v>
       </c>
       <c r="E49" t="s">
-        <v>126</v>
+        <v>289</v>
       </c>
       <c r="H49" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="I49" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="J49" t="s">
         <v>17</v>
       </c>
       <c r="K49">
-        <v>82.4</v>
+        <v>100</v>
       </c>
       <c r="L49">
-        <v>127.2</v>
+        <v>105.9</v>
       </c>
       <c r="M49" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="N49" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="O49" s="1" t="str">
         <f>VLOOKUP(C49,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -11388,23 +12373,36 @@
       </c>
       <c r="T49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q98207203</v>
-      </c>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3" t="str">
+        <v>Q62863961</v>
+      </c>
+      <c r="U49" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>Wrong</v>
+      </c>
+      <c r="V49" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Mod</v>
+      </c>
+      <c r="W49" t="s">
+        <v>288</v>
+      </c>
+      <c r="X49" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y49" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1083014</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s">
         <v>16</v>
@@ -11445,33 +12443,46 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U50" s="3"/>
+      <c r="U50" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V50" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1083014</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>286</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>287</v>
       </c>
       <c r="H51" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="I51" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="J51" t="s">
         <v>17</v>
@@ -11480,13 +12491,13 @@
         <v>100</v>
       </c>
       <c r="L51">
-        <v>50</v>
+        <v>102.1</v>
       </c>
       <c r="M51" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="N51" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="O51" s="1" t="str">
         <f>VLOOKUP(C51,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -11510,50 +12521,63 @@
       </c>
       <c r="T51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q37525</v>
-      </c>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3" t="str">
+        <v>Q21036645</v>
+      </c>
+      <c r="U51" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="V51" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Mod</v>
+      </c>
+      <c r="W51" t="s">
+        <v>286</v>
+      </c>
+      <c r="X51" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y51" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1083014</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D52" t="s">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="E52" t="s">
-        <v>131</v>
+        <v>291</v>
       </c>
       <c r="H52" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="I52" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="J52" t="s">
         <v>17</v>
       </c>
       <c r="K52">
-        <v>93.3</v>
+        <v>100</v>
       </c>
       <c r="L52">
-        <v>181.2</v>
+        <v>101</v>
       </c>
       <c r="M52" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="N52" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="O52" s="1" t="str">
         <f>VLOOKUP(C52,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -11577,38 +12601,63 @@
       </c>
       <c r="T52" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q419321</v>
-      </c>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3" t="str">
+        <v>Q29814692</v>
+      </c>
+      <c r="U52" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>Wrong</v>
+      </c>
+      <c r="V52" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>Mod</v>
       </c>
+      <c r="W52" t="s">
+        <v>290</v>
+      </c>
+      <c r="X52" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y52" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
-    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1083157</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>105</v>
+      </c>
+      <c r="D53" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" t="s">
+        <v>216</v>
       </c>
       <c r="H53" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="I53" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="J53" t="s">
         <v>17</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>171.3</v>
+      </c>
+      <c r="M53" t="s">
+        <v>217</v>
+      </c>
+      <c r="N53" t="s">
+        <v>218</v>
       </c>
       <c r="O53" s="1">
         <f>VLOOKUP(C53,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -11630,25 +12679,38 @@
         <f>VLOOKUP(C53,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v/>
       </c>
-      <c r="T53" s="3">
+      <c r="T53" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3" t="str">
+        <v>Q501353</v>
+      </c>
+      <c r="U53" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="V53" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Mod</v>
+      </c>
+      <c r="W53" t="s">
+        <v>215</v>
+      </c>
+      <c r="X53" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y53" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1083157</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="H54" t="s">
         <v>16</v>
@@ -11689,21 +12751,34 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U54" s="3"/>
+      <c r="U54" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V54" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1083160</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H55" t="s">
         <v>16</v>
@@ -11744,21 +12819,34 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U55" s="3"/>
+      <c r="U55" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V55" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1083160</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s">
         <v>16</v>
@@ -11799,36 +12887,55 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U56" s="3"/>
+      <c r="U56" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V56" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1084520</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>109</v>
+      </c>
+      <c r="D57" t="s">
+        <v>292</v>
+      </c>
+      <c r="E57" t="s">
+        <v>293</v>
       </c>
       <c r="H57" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="I57" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="J57" t="s">
         <v>17</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>118.6</v>
       </c>
       <c r="O57" s="1" t="str">
         <f>VLOOKUP(C57,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -11850,46 +12957,59 @@
         <f>VLOOKUP(C57,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v>Mod</v>
       </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3" t="str">
+        <v>Q605117</v>
+      </c>
+      <c r="U57" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="V57" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Mod</v>
+      </c>
+      <c r="W57" t="s">
+        <v>292</v>
+      </c>
+      <c r="X57" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y57" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1084520</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="D58" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="H58" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="I58" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="J58" t="s">
         <v>17</v>
       </c>
       <c r="K58">
-        <v>93.3</v>
+        <v>100</v>
       </c>
       <c r="L58">
-        <v>116.9</v>
+        <v>129.5</v>
       </c>
       <c r="O58" s="1" t="str">
         <f>VLOOKUP(C58,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -11915,33 +13035,46 @@
         <f t="shared" si="0"/>
         <v>Q1770203</v>
       </c>
-      <c r="U58" s="3"/>
+      <c r="U58" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V58" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W58" t="s">
+        <v>111</v>
+      </c>
+      <c r="X58" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y58" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1084520</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="E59" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="H59" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="I59" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="J59" t="s">
         <v>17</v>
@@ -11950,13 +13083,7 @@
         <v>100</v>
       </c>
       <c r="L59">
-        <v>50</v>
-      </c>
-      <c r="M59" t="s">
-        <v>146</v>
-      </c>
-      <c r="N59" t="s">
-        <v>147</v>
+        <v>166.8</v>
       </c>
       <c r="O59" s="1" t="str">
         <f>VLOOKUP(C59,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -11980,38 +13107,48 @@
       </c>
       <c r="T59" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q116719041</v>
-      </c>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3" t="str">
+        <v>Q15242449</v>
+      </c>
+      <c r="U59" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>Wrong</v>
+      </c>
+      <c r="V59" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Mod</v>
+      </c>
+      <c r="W59" t="s">
+        <v>219</v>
+      </c>
+      <c r="X59" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y59" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1084520</v>
       </c>
       <c r="B60" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>294</v>
       </c>
       <c r="E60" t="s">
-        <v>150</v>
-      </c>
-      <c r="F60" t="s">
-        <v>151</v>
+        <v>295</v>
       </c>
       <c r="H60" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="I60" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="J60" t="s">
         <v>17</v>
@@ -12020,13 +13157,13 @@
         <v>100</v>
       </c>
       <c r="L60">
-        <v>50</v>
+        <v>154.6</v>
       </c>
       <c r="M60" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="N60" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="O60" s="1" t="str">
         <f>VLOOKUP(C60,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12050,44 +13187,57 @@
       </c>
       <c r="T60" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q629</v>
-      </c>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3" t="str">
+        <v>Q5203615</v>
+      </c>
+      <c r="U60" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="V60" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Mod</v>
+      </c>
+      <c r="W60" t="s">
+        <v>294</v>
+      </c>
+      <c r="X60" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y60" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1084520</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="D61" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="E61" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="H61" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="J61" t="s">
         <v>17</v>
       </c>
       <c r="K61">
-        <v>93.8</v>
+        <v>100</v>
       </c>
       <c r="L61">
-        <v>261.8</v>
+        <v>219.8</v>
       </c>
       <c r="O61" s="1" t="str">
         <f>VLOOKUP(C61,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12113,33 +13263,46 @@
         <f t="shared" si="0"/>
         <v>Q815353</v>
       </c>
-      <c r="U61" s="3"/>
+      <c r="U61" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V61" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W61" t="s">
+        <v>116</v>
+      </c>
+      <c r="X61" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y61" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1084520</v>
       </c>
       <c r="B62" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="D62" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="E62" t="s">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c r="H62" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="I62" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="J62" t="s">
         <v>17</v>
@@ -12148,7 +13311,7 @@
         <v>100</v>
       </c>
       <c r="L62">
-        <v>50</v>
+        <v>201.1</v>
       </c>
       <c r="O62" s="1" t="str">
         <f>VLOOKUP(C62,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12172,35 +13335,48 @@
       </c>
       <c r="T62" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q1640043</v>
-      </c>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3" t="str">
+        <v>Q186487</v>
+      </c>
+      <c r="U62" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
+      <c r="V62" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Mod</v>
+      </c>
+      <c r="W62" t="s">
+        <v>221</v>
+      </c>
+      <c r="X62" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y62" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1084657</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="C63" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="D63" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="E63" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="H63" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="I63" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="J63" t="s">
         <v>17</v>
@@ -12209,13 +13385,13 @@
         <v>100</v>
       </c>
       <c r="L63">
-        <v>219.7</v>
+        <v>149.5</v>
       </c>
       <c r="M63" t="s">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="N63" t="s">
-        <v>118</v>
+        <v>226</v>
       </c>
       <c r="O63" s="1" t="str">
         <f>VLOOKUP(C63,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12239,38 +13415,51 @@
       </c>
       <c r="T63" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q126364723</v>
-      </c>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3" t="str">
+        <v>Q7547717</v>
+      </c>
+      <c r="U63" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>Wrong</v>
+      </c>
+      <c r="V63" s="5" t="str">
+        <f t="shared" si="2"/>
         <v>Mod</v>
       </c>
+      <c r="W63" t="s">
+        <v>223</v>
+      </c>
+      <c r="X63" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y63" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
-    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1084657</v>
       </c>
       <c r="B64" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="C64" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="D64" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="E64" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="H64" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="I64" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="J64" t="s">
         <v>17</v>
@@ -12279,13 +13468,13 @@
         <v>100</v>
       </c>
       <c r="L64">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="M64" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="N64" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="O64" s="1" t="str">
         <f>VLOOKUP(C64,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12311,51 +13500,64 @@
         <f t="shared" si="0"/>
         <v>Q706</v>
       </c>
-      <c r="U64" s="3"/>
+      <c r="U64" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V64" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W64" t="s">
+        <v>122</v>
+      </c>
+      <c r="X64" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y64" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1084657</v>
       </c>
       <c r="B65" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="C65" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="D65" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="E65" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="F65">
         <v>119510333</v>
       </c>
       <c r="H65" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="I65" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="J65" t="s">
         <v>17</v>
       </c>
       <c r="K65">
-        <v>94.1</v>
+        <v>100</v>
       </c>
       <c r="L65">
-        <v>234.8</v>
+        <v>219.6</v>
       </c>
       <c r="M65" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="N65" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="O65" s="1" t="str">
         <f>VLOOKUP(C65,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12381,21 +13583,34 @@
         <f t="shared" si="0"/>
         <v>Q171877</v>
       </c>
-      <c r="U65" s="3"/>
+      <c r="U65" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V65" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W65" t="s">
+        <v>128</v>
+      </c>
+      <c r="X65" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y65" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1084657</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="H66" t="s">
         <v>16</v>
@@ -12436,33 +13651,46 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U66" s="3"/>
+      <c r="U66" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>ok</v>
+      </c>
       <c r="V66" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="3" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1084657</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="D67" t="s">
-        <v>175</v>
+        <v>296</v>
       </c>
       <c r="E67" t="s">
-        <v>176</v>
+        <v>297</v>
       </c>
       <c r="H67" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="I67" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="J67" t="s">
         <v>17</v>
@@ -12471,13 +13699,13 @@
         <v>100</v>
       </c>
       <c r="L67">
-        <v>235.1</v>
+        <v>118.4</v>
       </c>
       <c r="M67" t="s">
-        <v>177</v>
+        <v>298</v>
       </c>
       <c r="N67" t="s">
-        <v>178</v>
+        <v>299</v>
       </c>
       <c r="O67" s="1" t="str">
         <f>VLOOKUP(C67,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12500,24 +13728,37 @@
         <v>Mod</v>
       </c>
       <c r="T67" s="3" t="str">
-        <f t="shared" ref="T67:T104" si="2">E67</f>
-        <v>Q80139</v>
-      </c>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3" t="str">
-        <f t="shared" ref="V67:V104" si="3">IF(T67&lt;&gt;Q67,"Mod","")</f>
+        <f t="shared" ref="T67:T104" si="4">E67</f>
+        <v>Q2605789</v>
+      </c>
+      <c r="U67" s="3" t="str">
+        <f t="shared" ref="U67:U104" si="5">R67</f>
+        <v>Wrong</v>
+      </c>
+      <c r="V67" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Mod</v>
+      </c>
+      <c r="W67" t="s">
+        <v>296</v>
+      </c>
+      <c r="X67" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y67" s="3" t="str">
+        <f t="shared" ref="Y67:Y104" si="6">IF(X67&lt;&gt;E67,"Mod","")</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1084678</v>
       </c>
       <c r="B68" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="H68" t="s">
         <v>16</v>
@@ -12555,39 +13796,49 @@
         <v/>
       </c>
       <c r="T68" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U68" s="3"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U68" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
       <c r="V68" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="V67:V104" si="7">IF(T68&lt;&gt;Q68,"Mod","")</f>
+        <v/>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1084678</v>
       </c>
       <c r="B69" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D69" t="s">
-        <v>111</v>
+        <v>284</v>
       </c>
       <c r="E69" t="s">
-        <v>112</v>
-      </c>
-      <c r="F69" t="s">
-        <v>113</v>
+        <v>285</v>
       </c>
       <c r="H69" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="I69" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="J69" t="s">
         <v>17</v>
@@ -12596,7 +13847,7 @@
         <v>100</v>
       </c>
       <c r="L69">
-        <v>50</v>
+        <v>102.9</v>
       </c>
       <c r="O69" s="1" t="str">
         <f>VLOOKUP(C69,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12619,24 +13870,37 @@
         <v>Mod</v>
       </c>
       <c r="T69" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Q101072</v>
-      </c>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>Q106205899</v>
+      </c>
+      <c r="U69" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Wrong</v>
+      </c>
+      <c r="V69" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Mod</v>
       </c>
+      <c r="W69" t="s">
+        <v>284</v>
+      </c>
+      <c r="X69" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y69" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
     </row>
-    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1084678</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="H70" t="s">
         <v>16</v>
@@ -12674,24 +13938,37 @@
         <v/>
       </c>
       <c r="T70" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U70" s="3"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U70" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
       <c r="V70" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1084678</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="H71" t="s">
         <v>16</v>
@@ -12729,36 +14006,49 @@
         <v/>
       </c>
       <c r="T71" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U71" s="3"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U71" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
       <c r="V71" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1084678</v>
       </c>
       <c r="B72" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="D72" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="E72" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="H72" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="I72" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="J72" t="s">
         <v>17</v>
@@ -12767,13 +14057,13 @@
         <v>100</v>
       </c>
       <c r="L72">
-        <v>50</v>
+        <v>180.4</v>
       </c>
       <c r="M72" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="N72" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="O72" s="1" t="str">
         <f>VLOOKUP(C72,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12796,45 +14086,58 @@
         <v/>
       </c>
       <c r="T72" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Q134702323</v>
       </c>
-      <c r="U72" s="3"/>
+      <c r="U72" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Wrong</v>
+      </c>
       <c r="V72" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W72" t="s">
+        <v>138</v>
+      </c>
+      <c r="X72" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y72" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1084678</v>
       </c>
       <c r="B73" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="C73" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="D73" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="E73" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="H73" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I73" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J73" t="s">
         <v>17</v>
       </c>
       <c r="K73">
-        <v>100</v>
+        <v>93.3</v>
       </c>
       <c r="L73">
-        <v>50</v>
+        <v>184.2</v>
       </c>
       <c r="O73" s="1" t="str">
         <f>VLOOKUP(C73,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12857,39 +14160,67 @@
         <v/>
       </c>
       <c r="T73" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Q2282401</v>
       </c>
-      <c r="U73" s="3"/>
+      <c r="U73" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
       <c r="V73" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W73" t="s">
+        <v>143</v>
+      </c>
+      <c r="X73" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y73" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1086746</v>
       </c>
       <c r="B74" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s">
-        <v>191</v>
+        <v>146</v>
+      </c>
+      <c r="D74" t="s">
+        <v>273</v>
+      </c>
+      <c r="E74" t="s">
+        <v>274</v>
+      </c>
+      <c r="F74" t="s">
+        <v>275</v>
       </c>
       <c r="H74" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="I74" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="J74" t="s">
         <v>17</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>144.1</v>
+      </c>
+      <c r="M74" t="s">
+        <v>276</v>
+      </c>
+      <c r="N74" t="s">
+        <v>277</v>
       </c>
       <c r="O74" s="1">
         <f>VLOOKUP(C74,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12911,40 +14242,68 @@
         <f>VLOOKUP(C74,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v/>
       </c>
-      <c r="T74" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="T74" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Q725</v>
+      </c>
+      <c r="U74" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
+      <c r="V74" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>Mod</v>
+      </c>
+      <c r="W74" t="s">
+        <v>273</v>
+      </c>
+      <c r="X74" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y74" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1086746</v>
       </c>
       <c r="B75" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C75" t="s">
-        <v>192</v>
+        <v>147</v>
+      </c>
+      <c r="D75" t="s">
+        <v>229</v>
+      </c>
+      <c r="E75" t="s">
+        <v>230</v>
+      </c>
+      <c r="F75">
+        <v>119470591</v>
       </c>
       <c r="H75" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="I75" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="J75" t="s">
         <v>17</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>149.80000000000001</v>
+      </c>
+      <c r="M75" t="s">
+        <v>231</v>
+      </c>
+      <c r="N75" t="s">
+        <v>300</v>
       </c>
       <c r="O75" s="1">
         <f>VLOOKUP(C75,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12966,40 +14325,68 @@
         <f>VLOOKUP(C75,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v/>
       </c>
-      <c r="T75" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="T75" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Q753</v>
+      </c>
+      <c r="U75" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
+      <c r="V75" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>Mod</v>
+      </c>
+      <c r="W75" t="s">
+        <v>229</v>
+      </c>
+      <c r="X75" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y75" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1086746</v>
       </c>
       <c r="B76" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C76" t="s">
-        <v>193</v>
+        <v>148</v>
+      </c>
+      <c r="D76" t="s">
+        <v>232</v>
+      </c>
+      <c r="E76" t="s">
+        <v>233</v>
+      </c>
+      <c r="F76" t="s">
+        <v>234</v>
       </c>
       <c r="H76" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="I76" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="J76" t="s">
         <v>17</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>163.80000000000001</v>
+      </c>
+      <c r="M76" t="s">
+        <v>227</v>
+      </c>
+      <c r="N76" t="s">
+        <v>228</v>
       </c>
       <c r="O76" s="1">
         <f>VLOOKUP(C76,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13021,40 +14408,68 @@
         <f>VLOOKUP(C76,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v/>
       </c>
-      <c r="T76" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="T76" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Q974</v>
+      </c>
+      <c r="U76" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
+      <c r="V76" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>Mod</v>
+      </c>
+      <c r="W76" t="s">
+        <v>232</v>
+      </c>
+      <c r="X76" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y76" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1086746</v>
       </c>
       <c r="B77" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C77" t="s">
-        <v>194</v>
+        <v>149</v>
+      </c>
+      <c r="D77" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" t="s">
+        <v>236</v>
+      </c>
+      <c r="F77">
+        <v>118650631</v>
       </c>
       <c r="H77" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="I77" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="J77" t="s">
         <v>17</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>151.5</v>
+      </c>
+      <c r="M77" t="s">
+        <v>237</v>
+      </c>
+      <c r="N77" t="s">
+        <v>238</v>
       </c>
       <c r="O77" s="1">
         <f>VLOOKUP(C77,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13076,40 +14491,68 @@
         <f>VLOOKUP(C77,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v/>
       </c>
-      <c r="T77" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="T77" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Q1065</v>
+      </c>
+      <c r="U77" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
+      <c r="V77" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>Mod</v>
+      </c>
+      <c r="W77" t="s">
+        <v>235</v>
+      </c>
+      <c r="X77" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y77" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1086746</v>
       </c>
       <c r="B78" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C78" t="s">
-        <v>195</v>
+        <v>150</v>
+      </c>
+      <c r="D78" t="s">
+        <v>239</v>
+      </c>
+      <c r="E78" t="s">
+        <v>240</v>
+      </c>
+      <c r="F78" t="s">
+        <v>241</v>
       </c>
       <c r="H78" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="I78" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="J78" t="s">
         <v>17</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>146.5</v>
+      </c>
+      <c r="M78" t="s">
+        <v>242</v>
+      </c>
+      <c r="N78" t="s">
+        <v>301</v>
       </c>
       <c r="O78" s="1">
         <f>VLOOKUP(C78,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13131,40 +14574,68 @@
         <f>VLOOKUP(C78,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v/>
       </c>
-      <c r="T78" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="T78" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Q925</v>
+      </c>
+      <c r="U78" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
+      <c r="V78" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>Mod</v>
+      </c>
+      <c r="W78" t="s">
+        <v>239</v>
+      </c>
+      <c r="X78" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y78" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1086746</v>
       </c>
       <c r="B79" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C79" t="s">
-        <v>196</v>
+        <v>151</v>
+      </c>
+      <c r="D79" t="s">
+        <v>243</v>
+      </c>
+      <c r="E79" t="s">
+        <v>244</v>
+      </c>
+      <c r="F79">
+        <v>119567697</v>
       </c>
       <c r="H79" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="I79" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="J79" t="s">
         <v>17</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>157.1</v>
+      </c>
+      <c r="M79" t="s">
+        <v>245</v>
+      </c>
+      <c r="N79" t="s">
+        <v>302</v>
       </c>
       <c r="O79" s="1">
         <f>VLOOKUP(C79,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13186,40 +14657,50 @@
         <f>VLOOKUP(C79,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v/>
       </c>
-      <c r="T79" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="T79" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Q708</v>
+      </c>
+      <c r="U79" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
+      <c r="V79" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>Mod</v>
+      </c>
+      <c r="W79" t="s">
+        <v>243</v>
+      </c>
+      <c r="X79" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y79" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1086746</v>
       </c>
       <c r="B80" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C80" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="D80" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="E80" t="s">
-        <v>199</v>
-      </c>
-      <c r="F80">
-        <v>124869430</v>
+        <v>246</v>
       </c>
       <c r="H80" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="I80" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="J80" t="s">
         <v>17</v>
@@ -13228,13 +14709,7 @@
         <v>100</v>
       </c>
       <c r="L80">
-        <v>50</v>
-      </c>
-      <c r="M80" t="s">
-        <v>200</v>
-      </c>
-      <c r="N80" t="s">
-        <v>201</v>
+        <v>165.3</v>
       </c>
       <c r="O80" s="1" t="str">
         <f>VLOOKUP(C80,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13257,36 +14732,49 @@
         <v>Mod</v>
       </c>
       <c r="T80" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Q38848</v>
-      </c>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>Q105789</v>
+      </c>
+      <c r="U80" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Wrong</v>
+      </c>
+      <c r="V80" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Mod</v>
       </c>
+      <c r="W80" t="s">
+        <v>153</v>
+      </c>
+      <c r="X80" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y80" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
     </row>
-    <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1086746</v>
       </c>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C81" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="D81" t="s">
-        <v>203</v>
+        <v>303</v>
       </c>
       <c r="E81" t="s">
-        <v>204</v>
+        <v>304</v>
       </c>
       <c r="H81" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="I81" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="J81" t="s">
         <v>17</v>
@@ -13295,13 +14783,7 @@
         <v>100</v>
       </c>
       <c r="L81">
-        <v>50</v>
-      </c>
-      <c r="M81" t="s">
-        <v>205</v>
-      </c>
-      <c r="N81" t="s">
-        <v>206</v>
+        <v>149.5</v>
       </c>
       <c r="O81" s="1" t="str">
         <f>VLOOKUP(C81,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13324,39 +14806,49 @@
         <v/>
       </c>
       <c r="T81" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Q41263</v>
-      </c>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>Q271855</v>
+      </c>
+      <c r="U81" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Wrong</v>
+      </c>
+      <c r="V81" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>Mod</v>
+      </c>
+      <c r="W81" t="s">
+        <v>303</v>
+      </c>
+      <c r="X81" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y81" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1086746</v>
       </c>
       <c r="B82" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C82" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="D82" t="s">
-        <v>207</v>
+        <v>305</v>
       </c>
       <c r="E82" t="s">
-        <v>208</v>
-      </c>
-      <c r="F82">
-        <v>119582905</v>
+        <v>306</v>
       </c>
       <c r="H82" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="I82" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="J82" t="s">
         <v>17</v>
@@ -13365,13 +14857,13 @@
         <v>100</v>
       </c>
       <c r="L82">
-        <v>281</v>
+        <v>148.69999999999999</v>
       </c>
       <c r="M82" t="s">
-        <v>209</v>
+        <v>307</v>
       </c>
       <c r="N82" t="s">
-        <v>210</v>
+        <v>308</v>
       </c>
       <c r="O82" s="1" t="str">
         <f>VLOOKUP(C82,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13394,51 +14886,67 @@
         <v>Mod</v>
       </c>
       <c r="T82" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Q1471</v>
-      </c>
-      <c r="U82" s="3"/>
-      <c r="V82" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>Q130912</v>
+      </c>
+      <c r="U82" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
+      <c r="V82" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>Mod</v>
+      </c>
+      <c r="W82" t="s">
+        <v>305</v>
+      </c>
+      <c r="X82" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y82" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1086746</v>
       </c>
       <c r="B83" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C83" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="D83" t="s">
-        <v>212</v>
+        <v>309</v>
       </c>
       <c r="E83" t="s">
-        <v>213</v>
+        <v>310</v>
+      </c>
+      <c r="F83" t="s">
+        <v>311</v>
       </c>
       <c r="H83" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="I83" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="J83" t="s">
         <v>17</v>
       </c>
       <c r="K83">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L83">
-        <v>263.8</v>
+        <v>129.6</v>
       </c>
       <c r="M83" t="s">
-        <v>214</v>
+        <v>312</v>
       </c>
       <c r="N83" t="s">
-        <v>215</v>
+        <v>313</v>
       </c>
       <c r="O83" s="1" t="str">
         <f>VLOOKUP(C83,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13461,39 +14969,64 @@
         <v>Mod</v>
       </c>
       <c r="T83" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Q4022</v>
-      </c>
-      <c r="U83" s="3"/>
-      <c r="V83" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>Q355304</v>
+      </c>
+      <c r="U83" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
+      <c r="V83" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>Mod</v>
+      </c>
+      <c r="W83" t="s">
+        <v>309</v>
+      </c>
+      <c r="X83" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y83" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1086746</v>
       </c>
       <c r="B84" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C84" t="s">
-        <v>216</v>
+        <v>157</v>
+      </c>
+      <c r="D84" t="s">
+        <v>247</v>
+      </c>
+      <c r="E84" t="s">
+        <v>248</v>
       </c>
       <c r="H84" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="I84" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="J84" t="s">
         <v>17</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>119.3</v>
+      </c>
+      <c r="M84" t="s">
+        <v>249</v>
+      </c>
+      <c r="N84" t="s">
+        <v>314</v>
       </c>
       <c r="O84" s="1" t="str">
         <f>VLOOKUP(C84,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13515,25 +15048,38 @@
         <f>VLOOKUP(C84,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v>Mod</v>
       </c>
-      <c r="T84" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U84" s="3"/>
-      <c r="V84" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="T84" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Q1440626</v>
+      </c>
+      <c r="U84" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Wrong</v>
+      </c>
+      <c r="V84" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>Mod</v>
+      </c>
+      <c r="W84" t="s">
+        <v>247</v>
+      </c>
+      <c r="X84" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y84" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1086752</v>
       </c>
       <c r="B85" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="C85" t="s">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="H85" t="s">
         <v>16</v>
@@ -13571,24 +15117,37 @@
         <v/>
       </c>
       <c r="T85" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U85" s="3"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U85" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
       <c r="V85" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1086752</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="H86" t="s">
         <v>16</v>
@@ -13626,24 +15185,37 @@
         <v>Mod</v>
       </c>
       <c r="T86" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U86" s="3"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U86" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
       <c r="V86" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1086752</v>
       </c>
       <c r="B87" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="C87" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="H87" t="s">
         <v>16</v>
@@ -13681,39 +15253,49 @@
         <v/>
       </c>
       <c r="T87" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U87" s="3"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U87" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
       <c r="V87" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1086752</v>
       </c>
       <c r="B88" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="C88" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="D88" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="E88" t="s">
-        <v>223</v>
-      </c>
-      <c r="F88" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="H88" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="I88" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="J88" t="s">
         <v>17</v>
@@ -13722,7 +15304,7 @@
         <v>100</v>
       </c>
       <c r="L88">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="O88" s="1" t="str">
         <f>VLOOKUP(C88,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13745,24 +15327,37 @@
         <v/>
       </c>
       <c r="T88" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Q351792</v>
-      </c>
-      <c r="U88" s="3"/>
-      <c r="V88" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>Q11781028</v>
+      </c>
+      <c r="U88" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
+      <c r="V88" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>Mod</v>
+      </c>
+      <c r="W88" t="s">
+        <v>250</v>
+      </c>
+      <c r="X88" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y88" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1087358</v>
       </c>
       <c r="B89" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="C89" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="H89" t="s">
         <v>16</v>
@@ -13800,39 +15395,58 @@
         <v/>
       </c>
       <c r="T89" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="3"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U89" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
       <c r="V89" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1087358</v>
       </c>
       <c r="B90" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="C90" t="s">
-        <v>227</v>
+        <v>165</v>
+      </c>
+      <c r="D90" t="s">
+        <v>252</v>
+      </c>
+      <c r="E90" t="s">
+        <v>253</v>
       </c>
       <c r="H90" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="I90" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="J90" t="s">
         <v>17</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>132.6</v>
       </c>
       <c r="O90" s="1">
         <f>VLOOKUP(C90,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13854,25 +15468,38 @@
         <f>VLOOKUP(C90,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v/>
       </c>
-      <c r="T90" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U90" s="3"/>
-      <c r="V90" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="T90" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Q1570979</v>
+      </c>
+      <c r="U90" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
+      <c r="V90" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>Mod</v>
+      </c>
+      <c r="W90" t="s">
+        <v>252</v>
+      </c>
+      <c r="X90" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y90" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1087358</v>
       </c>
       <c r="B91" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="C91" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="H91" t="s">
         <v>16</v>
@@ -13910,24 +15537,37 @@
         <v/>
       </c>
       <c r="T91" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U91" s="3"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
       <c r="V91" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1087358</v>
       </c>
       <c r="B92" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="C92" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="H92" t="s">
         <v>16</v>
@@ -13965,36 +15605,49 @@
         <v/>
       </c>
       <c r="T92" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U92" s="3"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U92" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
       <c r="V92" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1087358</v>
       </c>
       <c r="B93" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="C93" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="D93" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="E93" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="H93" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="I93" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="J93" t="s">
         <v>17</v>
@@ -14003,13 +15656,13 @@
         <v>100</v>
       </c>
       <c r="L93">
-        <v>50</v>
+        <v>137.30000000000001</v>
       </c>
       <c r="M93" t="s">
-        <v>233</v>
+        <v>130</v>
       </c>
       <c r="N93" t="s">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="O93" s="1" t="str">
         <f>VLOOKUP(C93,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14032,39 +15685,64 @@
         <v/>
       </c>
       <c r="T93" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Q710706</v>
-      </c>
-      <c r="U93" s="3"/>
-      <c r="V93" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>Q185006</v>
+      </c>
+      <c r="U93" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Wrong</v>
+      </c>
+      <c r="V93" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>Mod</v>
+      </c>
+      <c r="W93" t="s">
+        <v>254</v>
+      </c>
+      <c r="X93" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y93" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1087358</v>
       </c>
       <c r="B94" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="C94" t="s">
-        <v>235</v>
+        <v>169</v>
+      </c>
+      <c r="D94" t="s">
+        <v>254</v>
+      </c>
+      <c r="E94" t="s">
+        <v>255</v>
       </c>
       <c r="H94" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="I94" t="s">
-        <v>16</v>
+        <v>266</v>
       </c>
       <c r="J94" t="s">
         <v>17</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>113.7</v>
+      </c>
+      <c r="M94" t="s">
+        <v>130</v>
+      </c>
+      <c r="N94" t="s">
+        <v>131</v>
       </c>
       <c r="O94" s="1">
         <f>VLOOKUP(C94,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14086,25 +15764,38 @@
         <f>VLOOKUP(C94,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v/>
       </c>
-      <c r="T94" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U94" s="3"/>
-      <c r="V94" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="T94" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Q185006</v>
+      </c>
+      <c r="U94" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
+      <c r="V94" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>Mod</v>
+      </c>
+      <c r="W94" t="s">
+        <v>254</v>
+      </c>
+      <c r="X94" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y94" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1088019</v>
       </c>
       <c r="B95" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="C95" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="H95" t="s">
         <v>16</v>
@@ -14142,24 +15833,37 @@
         <v/>
       </c>
       <c r="T95" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U95" s="3"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U95" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
       <c r="V95" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1088019</v>
       </c>
       <c r="B96" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="C96" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="H96" t="s">
         <v>16</v>
@@ -14197,39 +15901,61 @@
         <v/>
       </c>
       <c r="T96" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U96" s="3"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U96" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
       <c r="V96" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1088019</v>
       </c>
       <c r="B97" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="C97" t="s">
-        <v>239</v>
+        <v>173</v>
+      </c>
+      <c r="D97" t="s">
+        <v>256</v>
+      </c>
+      <c r="E97" t="s">
+        <v>257</v>
+      </c>
+      <c r="F97" t="s">
+        <v>258</v>
       </c>
       <c r="H97" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I97" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J97" t="s">
         <v>17</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>182.9</v>
       </c>
       <c r="O97" s="1">
         <f>VLOOKUP(C97,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14251,25 +15977,38 @@
         <f>VLOOKUP(C97,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v/>
       </c>
-      <c r="T97" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U97" s="3"/>
-      <c r="V97" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="T97" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Q5725005</v>
+      </c>
+      <c r="U97" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
+      <c r="V97" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>Mod</v>
+      </c>
+      <c r="W97" t="s">
+        <v>256</v>
+      </c>
+      <c r="X97" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y97" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1088019</v>
       </c>
       <c r="B98" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="C98" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="H98" t="s">
         <v>16</v>
@@ -14307,36 +16046,49 @@
         <v/>
       </c>
       <c r="T98" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U98" s="3"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U98" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
       <c r="V98" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1088019</v>
       </c>
       <c r="B99" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="C99" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="D99" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="E99" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="H99" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="I99" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="J99" t="s">
         <v>17</v>
@@ -14345,7 +16097,7 @@
         <v>100</v>
       </c>
       <c r="L99">
-        <v>50</v>
+        <v>131.9</v>
       </c>
       <c r="O99" s="1" t="str">
         <f>VLOOKUP(C99,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14368,39 +16120,52 @@
         <v/>
       </c>
       <c r="T99" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Q1778729</v>
       </c>
-      <c r="U99" s="3"/>
+      <c r="U99" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
       <c r="V99" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W99" t="s">
+        <v>176</v>
+      </c>
+      <c r="X99" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y99" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1088019</v>
       </c>
       <c r="B100" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="C100" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="D100" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="E100" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="F100">
         <v>119328276</v>
       </c>
       <c r="H100" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="I100" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="J100" t="s">
         <v>17</v>
@@ -14409,13 +16174,13 @@
         <v>100</v>
       </c>
       <c r="L100">
-        <v>50</v>
+        <v>124.7</v>
       </c>
       <c r="M100" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="N100" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="O100" s="1" t="str">
         <f>VLOOKUP(C100,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14438,39 +16203,58 @@
         <v>Mod</v>
       </c>
       <c r="T100" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Q81163</v>
       </c>
-      <c r="U100" s="3"/>
+      <c r="U100" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
       <c r="V100" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W100" t="s">
+        <v>179</v>
+      </c>
+      <c r="X100" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y100" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1088019</v>
       </c>
       <c r="B101" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="C101" t="s">
-        <v>249</v>
+        <v>183</v>
+      </c>
+      <c r="D101" t="s">
+        <v>259</v>
+      </c>
+      <c r="E101" t="s">
+        <v>260</v>
       </c>
       <c r="H101" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I101" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J101" t="s">
         <v>17</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>94.7</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>93.2</v>
       </c>
       <c r="O101" s="1" t="str">
         <f>VLOOKUP(C101,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14492,46 +16276,68 @@
         <f>VLOOKUP(C101,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v>Mod</v>
       </c>
-      <c r="T101" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U101" s="3"/>
-      <c r="V101" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="T101" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Q17853087</v>
+      </c>
+      <c r="U101" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
+      <c r="V101" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>Mod</v>
+      </c>
+      <c r="W101" t="s">
+        <v>259</v>
+      </c>
+      <c r="X101" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y101" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1088019</v>
       </c>
       <c r="B102" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="C102" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="D102" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E102" t="s">
-        <v>252</v>
+        <v>262</v>
+      </c>
+      <c r="F102" t="s">
+        <v>263</v>
       </c>
       <c r="H102" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I102" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J102" t="s">
         <v>17</v>
       </c>
       <c r="K102">
-        <v>100</v>
+        <v>92.3</v>
       </c>
       <c r="L102">
-        <v>50</v>
+        <v>102.6</v>
+      </c>
+      <c r="M102" t="s">
+        <v>264</v>
+      </c>
+      <c r="N102" t="s">
+        <v>265</v>
       </c>
       <c r="O102" s="1" t="str">
         <f>VLOOKUP(C102,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14554,39 +16360,52 @@
         <v/>
       </c>
       <c r="T102" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>Q12055133</v>
-      </c>
-      <c r="U102" s="3"/>
-      <c r="V102" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>Q10874</v>
+      </c>
+      <c r="U102" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>Wrong</v>
+      </c>
+      <c r="V102" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>Mod</v>
+      </c>
+      <c r="W102" t="s">
+        <v>261</v>
+      </c>
+      <c r="X102" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y102" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1088019</v>
       </c>
       <c r="B103" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="C103" t="s">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="D103" t="s">
-        <v>254</v>
+        <v>186</v>
       </c>
       <c r="E103" t="s">
-        <v>255</v>
+        <v>187</v>
       </c>
       <c r="F103" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="H103" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="I103" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="J103" t="s">
         <v>17</v>
@@ -14595,7 +16414,7 @@
         <v>100</v>
       </c>
       <c r="L103">
-        <v>50</v>
+        <v>231.9</v>
       </c>
       <c r="O103" s="1" t="str">
         <f>VLOOKUP(C103,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14618,39 +16437,52 @@
         <v/>
       </c>
       <c r="T103" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Q61231</v>
       </c>
-      <c r="U103" s="3"/>
+      <c r="U103" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
       <c r="V103" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W103" t="s">
+        <v>186</v>
+      </c>
+      <c r="X103" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y103" s="3" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1088019</v>
       </c>
       <c r="B104" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="C104" t="s">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="D104" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="E104" t="s">
-        <v>259</v>
+        <v>191</v>
       </c>
       <c r="F104">
         <v>119788740</v>
       </c>
       <c r="H104" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="I104" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="J104" t="s">
         <v>17</v>
@@ -14659,7 +16491,7 @@
         <v>100</v>
       </c>
       <c r="L104">
-        <v>50</v>
+        <v>167.6</v>
       </c>
       <c r="O104" s="1" t="str">
         <f>VLOOKUP(C104,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14682,23 +16514,44 @@
         <v/>
       </c>
       <c r="T104" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>Q284256</v>
       </c>
-      <c r="U104" s="3"/>
+      <c r="U104" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>ok</v>
+      </c>
       <c r="V104" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="W104" t="s">
+        <v>190</v>
+      </c>
+      <c r="X104" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y104" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="P106">
+        <f>COUNTIF(P2:P104,"Wrong")</f>
+        <v>26</v>
+      </c>
+      <c r="R106">
+        <f>COUNTIF(R2:R104,"Wrong")</f>
+        <v>14</v>
+      </c>
+      <c r="U106">
+        <f>COUNTIF(U2:U104,"Wrong")</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V104" xr:uid="{76B0F430-0357-4ED2-80C0-C755800CD5D2}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Glucose oxidase"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V104" xr:uid="{76B0F430-0357-4ED2-80C0-C755800CD5D2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/wikidata/hal_field_audit_out/Wikidata_upec_chemical_20_rev2.xlsx
+++ b/wikidata/hal_field_audit_out/Wikidata_upec_chemical_20_rev2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanda\Documents\Langara_College\DANA-4850-001-Capstone_Project\hall-api-test-db-mysql\wikidata\hal_field_audit_out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DCA4B8-A2E5-4E53-ABDE-841AFB2973D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA672265-47AC-4F95-AE39-2461CD77BD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B94CFD69-61F1-4950-B09D-9EE9202C93BD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="322">
   <si>
     <t>docid</t>
   </si>
@@ -147,15 +147,6 @@
     <t>Q137056</t>
   </si>
   <si>
-    <t>11975888z</t>
-  </si>
-  <si>
-    <t>Q3382117</t>
-  </si>
-  <si>
-    <t>chemical phenomenon</t>
-  </si>
-  <si>
     <t>Ni-MH batteries</t>
   </si>
   <si>
@@ -849,18 +840,6 @@
     <t>Q505668</t>
   </si>
   <si>
-    <t>Tem</t>
-  </si>
-  <si>
-    <t>Q36531</t>
-  </si>
-  <si>
-    <t>12167223r</t>
-  </si>
-  <si>
-    <t>Q1288568;Q34770</t>
-  </si>
-  <si>
     <t>chromium</t>
   </si>
   <si>
@@ -987,25 +966,46 @@
     <t>political group of the European Parliament;non-attached</t>
   </si>
   <si>
-    <t>field of study;method</t>
-  </si>
-  <si>
     <t>Mod2b vs 2a</t>
   </si>
   <si>
-    <t>Q110548120</t>
-  </si>
-  <si>
-    <t>Q11060274;Q18218093;Q838948</t>
-  </si>
-  <si>
-    <t>language;modern language</t>
-  </si>
-  <si>
-    <t>funding body;open-access publisher;government agency;vice-ministerial level institution</t>
-  </si>
-  <si>
-    <t>print;work of art;etching print</t>
+    <t>European route E80</t>
+  </si>
+  <si>
+    <t>Q877647</t>
+  </si>
+  <si>
+    <t>Q34442</t>
+  </si>
+  <si>
+    <t>road</t>
+  </si>
+  <si>
+    <t>Q101007233;Q4220917</t>
+  </si>
+  <si>
+    <t>11952827m</t>
+  </si>
+  <si>
+    <t>Q118733587</t>
+  </si>
+  <si>
+    <t>type of meteorological phenomenon</t>
+  </si>
+  <si>
+    <t>boiler feedwater</t>
+  </si>
+  <si>
+    <t>Q351261</t>
+  </si>
+  <si>
+    <t>method;field of study</t>
+  </si>
+  <si>
+    <t>film award;film critics association</t>
+  </si>
+  <si>
+    <t>open-access publisher;funding body;vice-ministerial level institution;government agency</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1364,6 +1364,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1525,7 +1531,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1533,6 +1539,7 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8691,14 +8698,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B0F430-0357-4ED2-80C0-C755800CD5D2}">
   <dimension ref="A1:Y106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Y10" sqref="A10:Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
     <col min="4" max="4" width="23.109375" customWidth="1"/>
     <col min="23" max="23" width="11.88671875" customWidth="1"/>
     <col min="24" max="24" width="10.6640625" customWidth="1"/>
@@ -8748,31 +8755,31 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="U1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="Y1" s="3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
@@ -8942,10 +8949,10 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>17</v>
@@ -8954,7 +8961,7 @@
         <v>100</v>
       </c>
       <c r="L4" s="6">
-        <v>137.1</v>
+        <v>68.5</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -9160,18 +9167,18 @@
         <v>24</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>17</v>
@@ -9180,7 +9187,7 @@
         <v>100</v>
       </c>
       <c r="L7" s="6">
-        <v>144.30000000000001</v>
+        <v>125.5</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -9209,17 +9216,17 @@
         <v>Q505668</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="V7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Mod</v>
       </c>
       <c r="W7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="X7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Y7" s="3" t="str">
         <f t="shared" si="3"/>
@@ -9321,10 +9328,10 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>17</v>
@@ -9333,13 +9340,13 @@
         <v>100</v>
       </c>
       <c r="L9" s="6">
-        <v>222.4</v>
+        <v>85.9</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O9" s="1" t="str">
         <f>VLOOKUP(C9,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -9395,20 +9402,18 @@
         <v>32</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>33</v>
+        <v>317</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>17</v>
@@ -9417,14 +9422,10 @@
         <v>100</v>
       </c>
       <c r="L10" s="6">
-        <v>165</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>122.7</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
       <c r="O10" s="1" t="str">
         <f>VLOOKUP(C10,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>Q5173028</v>
@@ -9447,14 +9448,14 @@
       </c>
       <c r="T10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q137056</v>
+        <v>Q351261</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="V10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>Mod</v>
       </c>
       <c r="W10" t="s">
         <v>33</v>
@@ -9464,7 +9465,7 @@
       </c>
       <c r="Y10" s="3" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Mod</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -9475,7 +9476,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -9549,7 +9550,7 @@
         <v>31</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -9623,23 +9624,21 @@
         <v>31</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>271</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>17</v>
@@ -9648,13 +9647,13 @@
         <v>100</v>
       </c>
       <c r="L13" s="6">
-        <v>120.3</v>
+        <v>115.8</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="O13" s="1" t="str">
         <f>VLOOKUP(C13,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -9678,20 +9677,20 @@
       </c>
       <c r="T13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q36531</v>
+        <v>Q877647</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="V13" s="5" t="str">
         <f t="shared" si="2"/>
         <v>Mod</v>
       </c>
       <c r="W13" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="X13" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="Y13" s="3" t="str">
         <f t="shared" si="3"/>
@@ -9706,7 +9705,7 @@
         <v>31</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -9777,7 +9776,7 @@
         <v>1060481</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="6">
         <v>20902069</v>
@@ -9851,24 +9850,24 @@
         <v>1060481</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="J16" s="6" t="s">
         <v>17</v>
@@ -9877,10 +9876,10 @@
         <v>100</v>
       </c>
       <c r="L16" s="6">
-        <v>61</v>
+        <v>113.2</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>47</v>
+        <v>313</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>320</v>
@@ -9907,7 +9906,7 @@
       </c>
       <c r="T16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q4501917</v>
+        <v>Q1206671</v>
       </c>
       <c r="U16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -9917,11 +9916,11 @@
         <f t="shared" si="2"/>
         <v>Mod</v>
       </c>
-      <c r="W16" t="s">
-        <v>199</v>
-      </c>
-      <c r="X16" t="s">
-        <v>200</v>
+      <c r="W16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="Y16" s="3" t="str">
         <f t="shared" si="3"/>
@@ -9933,24 +9932,24 @@
         <v>1060481</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="E17" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>17</v>
@@ -9959,13 +9958,13 @@
         <v>100</v>
       </c>
       <c r="L17" s="6">
-        <v>79.8</v>
+        <v>63.3</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O17" s="1" t="str">
         <f>VLOOKUP(C17,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -10000,10 +9999,10 @@
         <v/>
       </c>
       <c r="W17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="X17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Y17" s="3" t="str">
         <f t="shared" si="3"/>
@@ -10015,7 +10014,7 @@
         <v>1060481</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" s="6">
         <v>21074094</v>
@@ -10089,7 +10088,7 @@
         <v>1060481</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C19" s="6">
         <v>51173134</v>
@@ -10163,10 +10162,10 @@
         <v>1064801</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -10237,10 +10236,10 @@
         <v>1064801</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -10311,10 +10310,10 @@
         <v>1064801</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -10385,16 +10384,16 @@
         <v>1064801</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -10411,13 +10410,13 @@
         <v>96.8</v>
       </c>
       <c r="L23" s="6">
-        <v>141.9</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O23" s="1" t="str">
         <f>VLOOKUP(C23,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -10452,10 +10451,10 @@
         <v/>
       </c>
       <c r="W23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="X23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Y23" s="3" t="str">
         <f t="shared" si="3"/>
@@ -10467,10 +10466,10 @@
         <v>1067996</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -10541,24 +10540,26 @@
         <v>1067996</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="E25" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="F25" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>314</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>266</v>
+        <v>21</v>
       </c>
       <c r="J25" s="6" t="s">
         <v>17</v>
@@ -10567,13 +10568,13 @@
         <v>100</v>
       </c>
       <c r="L25" s="6">
-        <v>75.599999999999994</v>
+        <v>151.80000000000001</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="O25" s="1" t="str">
         <f>VLOOKUP(C25,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -10597,7 +10598,7 @@
       </c>
       <c r="T25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q110548120</v>
+        <v>Q8074</v>
       </c>
       <c r="U25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -10605,17 +10606,17 @@
       </c>
       <c r="V25" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Mod</v>
+        <v/>
       </c>
       <c r="W25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Y25" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mod</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
@@ -10623,10 +10624,10 @@
         <v>1067996</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -10697,10 +10698,10 @@
         <v>1067996</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
@@ -10771,10 +10772,10 @@
         <v>1067996</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -10845,10 +10846,10 @@
         <v>1078652</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H29" t="s">
         <v>16</v>
@@ -10913,22 +10914,22 @@
         <v>1078652</v>
       </c>
       <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
         <v>65</v>
       </c>
-      <c r="C30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" t="s">
-        <v>68</v>
-      </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J30" t="s">
         <v>17</v>
@@ -10972,10 +10973,10 @@
         <v/>
       </c>
       <c r="W30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="X30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Y30" s="3" t="str">
         <f t="shared" si="3"/>
@@ -10987,22 +10988,22 @@
         <v>1078652</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J31" t="s">
         <v>17</v>
@@ -11046,10 +11047,10 @@
         <v>Mod</v>
       </c>
       <c r="W31" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="X31" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Y31" s="3" t="str">
         <f t="shared" si="3"/>
@@ -11061,10 +11062,10 @@
         <v>1078652</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H32" t="s">
         <v>16</v>
@@ -11129,10 +11130,10 @@
         <v>1078652</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H33" t="s">
         <v>16</v>
@@ -11197,16 +11198,16 @@
         <v>1078652</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H34" t="s">
         <v>21</v>
@@ -11256,10 +11257,10 @@
         <v/>
       </c>
       <c r="W34" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="X34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Y34" s="3" t="str">
         <f t="shared" si="3"/>
@@ -11271,16 +11272,16 @@
         <v>1078652</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E35" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H35" t="s">
         <v>21</v>
@@ -11298,10 +11299,10 @@
         <v>147.9</v>
       </c>
       <c r="M35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N35" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O35" s="1" t="str">
         <f>VLOOKUP(C35,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -11336,10 +11337,10 @@
         <v>Mod</v>
       </c>
       <c r="W35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="X35" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Y35" s="3" t="str">
         <f t="shared" si="3"/>
@@ -11351,10 +11352,10 @@
         <v>1078896</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s">
         <v>16</v>
@@ -11419,16 +11420,16 @@
         <v>1078896</v>
       </c>
       <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
         <v>77</v>
       </c>
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" t="s">
-        <v>80</v>
-      </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s">
         <v>21</v>
@@ -11446,10 +11447,10 @@
         <v>216.3</v>
       </c>
       <c r="M37" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O37" s="1" t="str">
         <f>VLOOKUP(C37,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -11484,10 +11485,10 @@
         <v/>
       </c>
       <c r="W37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Y37" s="3" t="str">
         <f t="shared" si="3"/>
@@ -11499,16 +11500,16 @@
         <v>1078896</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H38" t="s">
         <v>21</v>
@@ -11526,10 +11527,10 @@
         <v>86.5</v>
       </c>
       <c r="M38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O38" s="1">
         <f>VLOOKUP(C38,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -11564,10 +11565,10 @@
         <v>Mod</v>
       </c>
       <c r="W38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="X38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Y38" s="3" t="str">
         <f t="shared" si="3"/>
@@ -11579,10 +11580,10 @@
         <v>1083001</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s">
         <v>16</v>
@@ -11647,10 +11648,10 @@
         <v>1083001</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H40" t="s">
         <v>16</v>
@@ -11715,22 +11716,22 @@
         <v>1083001</v>
       </c>
       <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
         <v>85</v>
       </c>
-      <c r="C41" t="s">
-        <v>88</v>
-      </c>
       <c r="D41" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E41" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H41" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I41" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J41" t="s">
         <v>17</v>
@@ -11742,10 +11743,10 @@
         <v>90.8</v>
       </c>
       <c r="M41" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="N41" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="O41" s="1" t="str">
         <f>VLOOKUP(C41,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -11780,10 +11781,10 @@
         <v>Mod</v>
       </c>
       <c r="W41" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="X41" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="Y41" s="3" t="str">
         <f t="shared" si="3"/>
@@ -11795,16 +11796,16 @@
         <v>1083001</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H42" t="s">
         <v>21</v>
@@ -11854,10 +11855,10 @@
         <v>Mod</v>
       </c>
       <c r="W42" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="X42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Y42" s="3" t="str">
         <f t="shared" si="3"/>
@@ -11869,10 +11870,10 @@
         <v>1083004</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s">
         <v>16</v>
@@ -11937,22 +11938,22 @@
         <v>1083004</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E44" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H44" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I44" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J44" t="s">
         <v>17</v>
@@ -11964,10 +11965,10 @@
         <v>198</v>
       </c>
       <c r="M44" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N44" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O44" s="1" t="str">
         <f>VLOOKUP(C44,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12002,10 +12003,10 @@
         <v>Mod</v>
       </c>
       <c r="W44" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="X44" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Y44" s="3" t="str">
         <f t="shared" si="3"/>
@@ -12017,22 +12018,22 @@
         <v>1083004</v>
       </c>
       <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
         <v>90</v>
       </c>
-      <c r="C45" t="s">
-        <v>93</v>
-      </c>
       <c r="D45" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E45" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H45" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I45" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J45" t="s">
         <v>17</v>
@@ -12076,10 +12077,10 @@
         <v>Mod</v>
       </c>
       <c r="W45" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="X45" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="Y45" s="3" t="str">
         <f t="shared" si="3"/>
@@ -12091,10 +12092,10 @@
         <v>1083007</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s">
         <v>16</v>
@@ -12159,22 +12160,22 @@
         <v>1083007</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I47" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J47" t="s">
         <v>17</v>
@@ -12186,10 +12187,10 @@
         <v>171.9</v>
       </c>
       <c r="M47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O47" s="1" t="str">
         <f>VLOOKUP(C47,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12224,10 +12225,10 @@
         <v/>
       </c>
       <c r="W47" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="X47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Y47" s="3" t="str">
         <f t="shared" si="3"/>
@@ -12239,22 +12240,22 @@
         <v>1083007</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E48" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H48" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I48" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J48" t="s">
         <v>17</v>
@@ -12266,10 +12267,10 @@
         <v>86.9</v>
       </c>
       <c r="M48" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N48" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O48" s="1" t="str">
         <f>VLOOKUP(C48,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12304,10 +12305,10 @@
         <v>Mod</v>
       </c>
       <c r="W48" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="X48" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="Y48" s="3" t="str">
         <f t="shared" si="3"/>
@@ -12319,22 +12320,22 @@
         <v>1083007</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E49" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="H49" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I49" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J49" t="s">
         <v>17</v>
@@ -12346,10 +12347,10 @@
         <v>105.9</v>
       </c>
       <c r="M49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O49" s="1" t="str">
         <f>VLOOKUP(C49,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12384,10 +12385,10 @@
         <v>Mod</v>
       </c>
       <c r="W49" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="X49" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="Y49" s="3" t="str">
         <f t="shared" si="3"/>
@@ -12399,10 +12400,10 @@
         <v>1083014</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s">
         <v>16</v>
@@ -12467,22 +12468,22 @@
         <v>1083014</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D51" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E51" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H51" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I51" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J51" t="s">
         <v>17</v>
@@ -12494,10 +12495,10 @@
         <v>102.1</v>
       </c>
       <c r="M51" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N51" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O51" s="1" t="str">
         <f>VLOOKUP(C51,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12532,10 +12533,10 @@
         <v>Mod</v>
       </c>
       <c r="W51" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="X51" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="Y51" s="3" t="str">
         <f t="shared" si="3"/>
@@ -12547,22 +12548,22 @@
         <v>1083014</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D52" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E52" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H52" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I52" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J52" t="s">
         <v>17</v>
@@ -12574,10 +12575,10 @@
         <v>101</v>
       </c>
       <c r="M52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O52" s="1" t="str">
         <f>VLOOKUP(C52,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12612,10 +12613,10 @@
         <v>Mod</v>
       </c>
       <c r="W52" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="X52" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="Y52" s="3" t="str">
         <f t="shared" si="3"/>
@@ -12627,22 +12628,22 @@
         <v>1083157</v>
       </c>
       <c r="B53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D53" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H53" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I53" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J53" t="s">
         <v>17</v>
@@ -12654,10 +12655,10 @@
         <v>171.3</v>
       </c>
       <c r="M53" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N53" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O53" s="1">
         <f>VLOOKUP(C53,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12692,10 +12693,10 @@
         <v>Mod</v>
       </c>
       <c r="W53" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="X53" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Y53" s="3" t="str">
         <f t="shared" si="3"/>
@@ -12707,10 +12708,10 @@
         <v>1083157</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H54" t="s">
         <v>16</v>
@@ -12775,10 +12776,10 @@
         <v>1083160</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
         <v>16</v>
@@ -12843,10 +12844,10 @@
         <v>1083160</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H56" t="s">
         <v>16</v>
@@ -12911,22 +12912,22 @@
         <v>1084520</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D57" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E57" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="H57" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I57" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J57" t="s">
         <v>17</v>
@@ -12970,10 +12971,10 @@
         <v>Mod</v>
       </c>
       <c r="W57" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="X57" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="Y57" s="3" t="str">
         <f t="shared" si="3"/>
@@ -12985,22 +12986,22 @@
         <v>1084520</v>
       </c>
       <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" t="s">
         <v>108</v>
       </c>
-      <c r="C58" t="s">
-        <v>110</v>
-      </c>
-      <c r="D58" t="s">
-        <v>111</v>
-      </c>
       <c r="E58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H58" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I58" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J58" t="s">
         <v>17</v>
@@ -13044,10 +13045,10 @@
         <v/>
       </c>
       <c r="W58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Y58" s="3" t="str">
         <f t="shared" si="3"/>
@@ -13059,22 +13060,22 @@
         <v>1084520</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D59" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E59" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H59" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I59" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J59" t="s">
         <v>17</v>
@@ -13118,10 +13119,10 @@
         <v>Mod</v>
       </c>
       <c r="W59" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="X59" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Y59" s="3" t="str">
         <f t="shared" si="3"/>
@@ -13133,22 +13134,22 @@
         <v>1084520</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D60" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E60" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H60" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I60" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J60" t="s">
         <v>17</v>
@@ -13160,10 +13161,10 @@
         <v>154.6</v>
       </c>
       <c r="M60" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N60" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O60" s="1" t="str">
         <f>VLOOKUP(C60,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13198,10 +13199,10 @@
         <v>Mod</v>
       </c>
       <c r="W60" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="X60" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="Y60" s="3" t="str">
         <f t="shared" si="3"/>
@@ -13213,22 +13214,22 @@
         <v>1084520</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H61" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I61" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J61" t="s">
         <v>17</v>
@@ -13272,10 +13273,10 @@
         <v/>
       </c>
       <c r="W61" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="X61" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Y61" s="3" t="str">
         <f t="shared" si="3"/>
@@ -13287,22 +13288,22 @@
         <v>1084520</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E62" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H62" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I62" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J62" t="s">
         <v>17</v>
@@ -13346,10 +13347,10 @@
         <v>Mod</v>
       </c>
       <c r="W62" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="X62" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Y62" s="3" t="str">
         <f t="shared" si="3"/>
@@ -13361,22 +13362,22 @@
         <v>1084657</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C63" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D63" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E63" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H63" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I63" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J63" t="s">
         <v>17</v>
@@ -13388,10 +13389,10 @@
         <v>149.5</v>
       </c>
       <c r="M63" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N63" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O63" s="1" t="str">
         <f>VLOOKUP(C63,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13426,10 +13427,10 @@
         <v>Mod</v>
       </c>
       <c r="W63" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="X63" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Y63" s="3" t="str">
         <f t="shared" si="3"/>
@@ -13441,25 +13442,25 @@
         <v>1084657</v>
       </c>
       <c r="B64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" t="s">
         <v>119</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
       </c>
-      <c r="D64" t="s">
-        <v>122</v>
-      </c>
-      <c r="E64" t="s">
-        <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
-      </c>
       <c r="H64" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I64" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J64" t="s">
         <v>17</v>
@@ -13471,10 +13472,10 @@
         <v>159</v>
       </c>
       <c r="M64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O64" s="1" t="str">
         <f>VLOOKUP(C64,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13509,10 +13510,10 @@
         <v/>
       </c>
       <c r="W64" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="X64" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Y64" s="3" t="str">
         <f t="shared" si="3"/>
@@ -13524,25 +13525,25 @@
         <v>1084657</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F65">
         <v>119510333</v>
       </c>
       <c r="H65" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I65" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J65" t="s">
         <v>17</v>
@@ -13554,10 +13555,10 @@
         <v>219.6</v>
       </c>
       <c r="M65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N65" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O65" s="1" t="str">
         <f>VLOOKUP(C65,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13592,10 +13593,10 @@
         <v/>
       </c>
       <c r="W65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="X65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Y65" s="3" t="str">
         <f t="shared" si="3"/>
@@ -13607,10 +13608,10 @@
         <v>1084657</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H66" t="s">
         <v>16</v>
@@ -13675,22 +13676,22 @@
         <v>1084657</v>
       </c>
       <c r="B67" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D67" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="E67" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="H67" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I67" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J67" t="s">
         <v>17</v>
@@ -13702,10 +13703,10 @@
         <v>118.4</v>
       </c>
       <c r="M67" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="N67" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="O67" s="1" t="str">
         <f>VLOOKUP(C67,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13740,10 +13741,10 @@
         <v>Mod</v>
       </c>
       <c r="W67" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="X67" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="Y67" s="3" t="str">
         <f t="shared" ref="Y67:Y104" si="6">IF(X67&lt;&gt;E67,"Mod","")</f>
@@ -13755,10 +13756,10 @@
         <v>1084678</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s">
         <v>16</v>
@@ -13804,7 +13805,7 @@
         <v>ok</v>
       </c>
       <c r="V68" s="3" t="str">
-        <f t="shared" ref="V67:V104" si="7">IF(T68&lt;&gt;Q68,"Mod","")</f>
+        <f t="shared" ref="V68:V104" si="7">IF(T68&lt;&gt;Q68,"Mod","")</f>
         <v/>
       </c>
       <c r="W68">
@@ -13823,22 +13824,22 @@
         <v>1084678</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C69" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D69" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E69" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H69" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I69" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J69" t="s">
         <v>17</v>
@@ -13882,10 +13883,10 @@
         <v>Mod</v>
       </c>
       <c r="W69" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="X69" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="Y69" s="3" t="str">
         <f t="shared" si="6"/>
@@ -13897,10 +13898,10 @@
         <v>1084678</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C70" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H70" t="s">
         <v>16</v>
@@ -13965,10 +13966,10 @@
         <v>1084678</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H71" t="s">
         <v>16</v>
@@ -14033,22 +14034,22 @@
         <v>1084678</v>
       </c>
       <c r="B72" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" t="s">
         <v>134</v>
       </c>
-      <c r="C72" t="s">
-        <v>137</v>
-      </c>
       <c r="D72" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H72" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I72" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J72" t="s">
         <v>17</v>
@@ -14060,10 +14061,10 @@
         <v>180.4</v>
       </c>
       <c r="M72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O72" s="1" t="str">
         <f>VLOOKUP(C72,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14098,10 +14099,10 @@
         <v/>
       </c>
       <c r="W72" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="X72" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Y72" s="3" t="str">
         <f t="shared" si="6"/>
@@ -14113,16 +14114,16 @@
         <v>1084678</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H73" t="s">
         <v>21</v>
@@ -14172,10 +14173,10 @@
         <v/>
       </c>
       <c r="W73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="X73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Y73" s="3" t="str">
         <f t="shared" si="6"/>
@@ -14187,25 +14188,25 @@
         <v>1086746</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C74" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D74" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E74" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F74" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="H74" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I74" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J74" t="s">
         <v>17</v>
@@ -14217,10 +14218,10 @@
         <v>144.1</v>
       </c>
       <c r="M74" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="N74" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="O74" s="1">
         <f>VLOOKUP(C74,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14255,10 +14256,10 @@
         <v>Mod</v>
       </c>
       <c r="W74" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="X74" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Y74" s="3" t="str">
         <f t="shared" si="6"/>
@@ -14270,25 +14271,25 @@
         <v>1086746</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D75" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E75" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F75">
         <v>119470591</v>
       </c>
       <c r="H75" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I75" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J75" t="s">
         <v>17</v>
@@ -14300,10 +14301,10 @@
         <v>149.80000000000001</v>
       </c>
       <c r="M75" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="N75" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O75" s="1">
         <f>VLOOKUP(C75,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14338,10 +14339,10 @@
         <v>Mod</v>
       </c>
       <c r="W75" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="X75" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Y75" s="3" t="str">
         <f t="shared" si="6"/>
@@ -14353,25 +14354,25 @@
         <v>1086746</v>
       </c>
       <c r="B76" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" t="s">
         <v>145</v>
       </c>
-      <c r="C76" t="s">
-        <v>148</v>
-      </c>
       <c r="D76" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E76" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F76" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H76" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I76" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J76" t="s">
         <v>17</v>
@@ -14383,10 +14384,10 @@
         <v>163.80000000000001</v>
       </c>
       <c r="M76" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="N76" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O76" s="1">
         <f>VLOOKUP(C76,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14421,10 +14422,10 @@
         <v>Mod</v>
       </c>
       <c r="W76" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="X76" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Y76" s="3" t="str">
         <f t="shared" si="6"/>
@@ -14436,25 +14437,25 @@
         <v>1086746</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C77" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D77" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E77" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F77">
         <v>118650631</v>
       </c>
       <c r="H77" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I77" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J77" t="s">
         <v>17</v>
@@ -14466,10 +14467,10 @@
         <v>151.5</v>
       </c>
       <c r="M77" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="N77" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O77" s="1">
         <f>VLOOKUP(C77,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14504,10 +14505,10 @@
         <v>Mod</v>
       </c>
       <c r="W77" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="X77" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Y77" s="3" t="str">
         <f t="shared" si="6"/>
@@ -14519,25 +14520,25 @@
         <v>1086746</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D78" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E78" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F78" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I78" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J78" t="s">
         <v>17</v>
@@ -14549,10 +14550,10 @@
         <v>146.5</v>
       </c>
       <c r="M78" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N78" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="O78" s="1">
         <f>VLOOKUP(C78,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14587,10 +14588,10 @@
         <v>Mod</v>
       </c>
       <c r="W78" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="X78" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Y78" s="3" t="str">
         <f t="shared" si="6"/>
@@ -14602,25 +14603,25 @@
         <v>1086746</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C79" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D79" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E79" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F79">
         <v>119567697</v>
       </c>
       <c r="H79" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I79" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J79" t="s">
         <v>17</v>
@@ -14632,10 +14633,10 @@
         <v>157.1</v>
       </c>
       <c r="M79" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N79" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="O79" s="1">
         <f>VLOOKUP(C79,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14670,10 +14671,10 @@
         <v>Mod</v>
       </c>
       <c r="W79" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="X79" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="Y79" s="3" t="str">
         <f t="shared" si="6"/>
@@ -14685,22 +14686,22 @@
         <v>1086746</v>
       </c>
       <c r="B80" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C80" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E80" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H80" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I80" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J80" t="s">
         <v>17</v>
@@ -14744,10 +14745,10 @@
         <v>Mod</v>
       </c>
       <c r="W80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="X80" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Y80" s="3" t="str">
         <f t="shared" si="6"/>
@@ -14759,22 +14760,22 @@
         <v>1086746</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C81" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D81" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E81" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H81" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I81" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J81" t="s">
         <v>17</v>
@@ -14818,10 +14819,10 @@
         <v>Mod</v>
       </c>
       <c r="W81" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="X81" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="Y81" s="3" t="str">
         <f t="shared" si="6"/>
@@ -14833,22 +14834,22 @@
         <v>1086746</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C82" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D82" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E82" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H82" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I82" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J82" t="s">
         <v>17</v>
@@ -14860,10 +14861,10 @@
         <v>148.69999999999999</v>
       </c>
       <c r="M82" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="N82" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="O82" s="1" t="str">
         <f>VLOOKUP(C82,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14898,10 +14899,10 @@
         <v>Mod</v>
       </c>
       <c r="W82" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="X82" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="Y82" s="3" t="str">
         <f t="shared" si="6"/>
@@ -14913,25 +14914,25 @@
         <v>1086746</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C83" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D83" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E83" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F83" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H83" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I83" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J83" t="s">
         <v>17</v>
@@ -14943,10 +14944,10 @@
         <v>129.6</v>
       </c>
       <c r="M83" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="N83" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="O83" s="1" t="str">
         <f>VLOOKUP(C83,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14981,10 +14982,10 @@
         <v>Mod</v>
       </c>
       <c r="W83" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="X83" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="Y83" s="3" t="str">
         <f t="shared" si="6"/>
@@ -14996,22 +14997,22 @@
         <v>1086746</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C84" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D84" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E84" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H84" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I84" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J84" t="s">
         <v>17</v>
@@ -15023,10 +15024,10 @@
         <v>119.3</v>
       </c>
       <c r="M84" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N84" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="O84" s="1" t="str">
         <f>VLOOKUP(C84,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -15061,10 +15062,10 @@
         <v>Mod</v>
       </c>
       <c r="W84" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="X84" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Y84" s="3" t="str">
         <f t="shared" si="6"/>
@@ -15076,10 +15077,10 @@
         <v>1086752</v>
       </c>
       <c r="B85" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C85" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H85" t="s">
         <v>16</v>
@@ -15144,10 +15145,10 @@
         <v>1086752</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C86" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H86" t="s">
         <v>16</v>
@@ -15212,10 +15213,10 @@
         <v>1086752</v>
       </c>
       <c r="B87" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" t="s">
         <v>158</v>
-      </c>
-      <c r="C87" t="s">
-        <v>161</v>
       </c>
       <c r="H87" t="s">
         <v>16</v>
@@ -15280,22 +15281,22 @@
         <v>1086752</v>
       </c>
       <c r="B88" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C88" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D88" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E88" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H88" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I88" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J88" t="s">
         <v>17</v>
@@ -15339,10 +15340,10 @@
         <v>Mod</v>
       </c>
       <c r="W88" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="X88" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Y88" s="3" t="str">
         <f t="shared" si="6"/>
@@ -15354,10 +15355,10 @@
         <v>1087358</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C89" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H89" t="s">
         <v>16</v>
@@ -15422,22 +15423,22 @@
         <v>1087358</v>
       </c>
       <c r="B90" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C90" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D90" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E90" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H90" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I90" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J90" t="s">
         <v>17</v>
@@ -15481,10 +15482,10 @@
         <v>Mod</v>
       </c>
       <c r="W90" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="X90" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Y90" s="3" t="str">
         <f t="shared" si="6"/>
@@ -15496,10 +15497,10 @@
         <v>1087358</v>
       </c>
       <c r="B91" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" t="s">
         <v>163</v>
-      </c>
-      <c r="C91" t="s">
-        <v>166</v>
       </c>
       <c r="H91" t="s">
         <v>16</v>
@@ -15564,10 +15565,10 @@
         <v>1087358</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C92" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H92" t="s">
         <v>16</v>
@@ -15632,22 +15633,22 @@
         <v>1087358</v>
       </c>
       <c r="B93" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C93" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D93" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E93" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H93" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I93" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J93" t="s">
         <v>17</v>
@@ -15659,10 +15660,10 @@
         <v>137.30000000000001</v>
       </c>
       <c r="M93" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N93" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O93" s="1" t="str">
         <f>VLOOKUP(C93,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -15697,10 +15698,10 @@
         <v>Mod</v>
       </c>
       <c r="W93" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="X93" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Y93" s="3" t="str">
         <f t="shared" si="6"/>
@@ -15712,22 +15713,22 @@
         <v>1087358</v>
       </c>
       <c r="B94" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D94" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E94" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H94" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I94" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J94" t="s">
         <v>17</v>
@@ -15739,10 +15740,10 @@
         <v>113.7</v>
       </c>
       <c r="M94" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N94" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O94" s="1">
         <f>VLOOKUP(C94,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -15777,10 +15778,10 @@
         <v>Mod</v>
       </c>
       <c r="W94" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="X94" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Y94" s="3" t="str">
         <f t="shared" si="6"/>
@@ -15792,10 +15793,10 @@
         <v>1088019</v>
       </c>
       <c r="B95" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C95" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H95" t="s">
         <v>16</v>
@@ -15860,10 +15861,10 @@
         <v>1088019</v>
       </c>
       <c r="B96" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C96" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H96" t="s">
         <v>16</v>
@@ -15928,19 +15929,19 @@
         <v>1088019</v>
       </c>
       <c r="B97" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" t="s">
         <v>170</v>
       </c>
-      <c r="C97" t="s">
-        <v>173</v>
-      </c>
       <c r="D97" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E97" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F97" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H97" t="s">
         <v>21</v>
@@ -15990,10 +15991,10 @@
         <v>Mod</v>
       </c>
       <c r="W97" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="X97" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Y97" s="3" t="str">
         <f t="shared" si="6"/>
@@ -16005,10 +16006,10 @@
         <v>1088019</v>
       </c>
       <c r="B98" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C98" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H98" t="s">
         <v>16</v>
@@ -16073,22 +16074,22 @@
         <v>1088019</v>
       </c>
       <c r="B99" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C99" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D99" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E99" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H99" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I99" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J99" t="s">
         <v>17</v>
@@ -16132,10 +16133,10 @@
         <v/>
       </c>
       <c r="W99" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="X99" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Y99" s="3" t="str">
         <f t="shared" si="6"/>
@@ -16147,25 +16148,25 @@
         <v>1088019</v>
       </c>
       <c r="B100" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C100" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D100" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E100" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F100">
         <v>119328276</v>
       </c>
       <c r="H100" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I100" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J100" t="s">
         <v>17</v>
@@ -16177,10 +16178,10 @@
         <v>124.7</v>
       </c>
       <c r="M100" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N100" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O100" s="1" t="str">
         <f>VLOOKUP(C100,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -16215,10 +16216,10 @@
         <v/>
       </c>
       <c r="W100" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="X100" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Y100" s="3" t="str">
         <f t="shared" si="6"/>
@@ -16230,16 +16231,16 @@
         <v>1088019</v>
       </c>
       <c r="B101" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C101" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D101" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E101" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H101" t="s">
         <v>21</v>
@@ -16289,10 +16290,10 @@
         <v>Mod</v>
       </c>
       <c r="W101" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="X101" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Y101" s="3" t="str">
         <f t="shared" si="6"/>
@@ -16304,19 +16305,19 @@
         <v>1088019</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C102" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D102" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E102" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F102" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H102" t="s">
         <v>21</v>
@@ -16334,10 +16335,10 @@
         <v>102.6</v>
       </c>
       <c r="M102" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N102" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O102" s="1" t="str">
         <f>VLOOKUP(C102,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -16372,10 +16373,10 @@
         <v>Mod</v>
       </c>
       <c r="W102" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="X102" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Y102" s="3" t="str">
         <f t="shared" si="6"/>
@@ -16387,25 +16388,25 @@
         <v>1088019</v>
       </c>
       <c r="B103" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C103" t="s">
+        <v>182</v>
+      </c>
+      <c r="D103" t="s">
+        <v>183</v>
+      </c>
+      <c r="E103" t="s">
+        <v>184</v>
+      </c>
+      <c r="F103" t="s">
         <v>185</v>
       </c>
-      <c r="D103" t="s">
-        <v>186</v>
-      </c>
-      <c r="E103" t="s">
-        <v>187</v>
-      </c>
-      <c r="F103" t="s">
-        <v>188</v>
-      </c>
       <c r="H103" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I103" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J103" t="s">
         <v>17</v>
@@ -16449,10 +16450,10 @@
         <v/>
       </c>
       <c r="W103" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="X103" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Y103" s="3" t="str">
         <f t="shared" si="6"/>
@@ -16464,25 +16465,25 @@
         <v>1088019</v>
       </c>
       <c r="B104" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C104" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D104" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E104" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F104">
         <v>119788740</v>
       </c>
       <c r="H104" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I104" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J104" t="s">
         <v>17</v>
@@ -16526,10 +16527,10 @@
         <v/>
       </c>
       <c r="W104" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="X104" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Y104" s="3" t="str">
         <f t="shared" si="6"/>

--- a/wikidata/hal_field_audit_out/Wikidata_upec_chemical_20_rev2.xlsx
+++ b/wikidata/hal_field_audit_out/Wikidata_upec_chemical_20_rev2.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanda\Documents\Langara_College\DANA-4850-001-Capstone_Project\hall-api-test-db-mysql\wikidata\hal_field_audit_out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA672265-47AC-4F95-AE39-2461CD77BD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC61E50-99C3-4F4B-B72D-D469F7FBF602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B94CFD69-61F1-4950-B09D-9EE9202C93BD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Wikidata_upec_chemical_20" sheetId="1" r:id="rId1"/>
+    <sheet name="Wikidata_upec_chemical_20_2" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Wikidata_upec_chemical_20!$A$1:$V$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Wikidata_upec_chemical_20_2!$A$1:$V$104</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="322">
   <si>
     <t>docid</t>
   </si>
@@ -60,9 +60,6 @@
     <t>bnf_id</t>
   </si>
   <si>
-    <t>p279_path</t>
-  </si>
-  <si>
     <t>retry_source</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Q3268911</t>
   </si>
   <si>
-    <t>context</t>
-  </si>
-  <si>
     <t>Rectangular channel</t>
   </si>
   <si>
@@ -321,27 +315,12 @@
     <t>Implantable sensor</t>
   </si>
   <si>
-    <t>Q124665234</t>
-  </si>
-  <si>
-    <t>Q43305660</t>
-  </si>
-  <si>
-    <t>United States patent</t>
-  </si>
-  <si>
     <t>Glucose</t>
   </si>
   <si>
     <t>Glucose oxidase</t>
   </si>
   <si>
-    <t>Q8054</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
     <t>A glucose electrode using high-stability glucose-oxidase collagen membranes</t>
   </si>
   <si>
@@ -411,9 +390,6 @@
     <t>Q1130479;Q11344;Q35456</t>
   </si>
   <si>
-    <t>chemical element;essential medicine;lithophile</t>
-  </si>
-  <si>
     <t>Hydrogen peroxide</t>
   </si>
   <si>
@@ -447,12 +423,6 @@
     <t>Performance criteria</t>
   </si>
   <si>
-    <t>Performance Criteria</t>
-  </si>
-  <si>
-    <t>Q134702323</t>
-  </si>
-  <si>
     <t>Q7725634</t>
   </si>
   <si>
@@ -603,12 +573,6 @@
     <t>CRYSTALLIZATION</t>
   </si>
   <si>
-    <t>crystallization</t>
-  </si>
-  <si>
-    <t>Q284256</t>
-  </si>
-  <si>
     <t>v0</t>
   </si>
   <si>
@@ -630,12 +594,6 @@
     <t>ok</t>
   </si>
   <si>
-    <t>National Society of Film Critics</t>
-  </si>
-  <si>
-    <t>Q1206671</t>
-  </si>
-  <si>
     <t>electrospray ionization</t>
   </si>
   <si>
@@ -660,24 +618,6 @@
     <t>Q55511438</t>
   </si>
   <si>
-    <t>DNA microarray</t>
-  </si>
-  <si>
-    <t>Q591745</t>
-  </si>
-  <si>
-    <t>secrecy</t>
-  </si>
-  <si>
-    <t>Q1503443</t>
-  </si>
-  <si>
-    <t>Q100195948</t>
-  </si>
-  <si>
-    <t>relative quality</t>
-  </si>
-  <si>
     <t>history of chemistry</t>
   </si>
   <si>
@@ -714,12 +654,6 @@
     <t>gene</t>
   </si>
   <si>
-    <t>Q3624078;Q6256</t>
-  </si>
-  <si>
-    <t>sovereign state;country</t>
-  </si>
-  <si>
     <t>copper</t>
   </si>
   <si>
@@ -729,27 +663,6 @@
     <t>Q11344;Q1929547;Q2512777</t>
   </si>
   <si>
-    <t>Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Q974</t>
-  </si>
-  <si>
-    <t>13339496v</t>
-  </si>
-  <si>
-    <t>United Nations</t>
-  </si>
-  <si>
-    <t>Q1065</t>
-  </si>
-  <si>
-    <t>Q245065;Q484652</t>
-  </si>
-  <si>
-    <t>international organization;intergovernmental organization</t>
-  </si>
-  <si>
     <t>mercury</t>
   </si>
   <si>
@@ -774,21 +687,6 @@
     <t>Q105789</t>
   </si>
   <si>
-    <t>Non-Inscrits</t>
-  </si>
-  <si>
-    <t>Q1440626</t>
-  </si>
-  <si>
-    <t>Q2415493;Q779079</t>
-  </si>
-  <si>
-    <t>microelement</t>
-  </si>
-  <si>
-    <t>Q11781028</t>
-  </si>
-  <si>
     <t>spinâ€“orbit interaction</t>
   </si>
   <si>
@@ -801,39 +699,6 @@
     <t>Q185006</t>
   </si>
   <si>
-    <t>mechanical property</t>
-  </si>
-  <si>
-    <t>Q5725005</t>
-  </si>
-  <si>
-    <t>12088335h</t>
-  </si>
-  <si>
-    <t>union</t>
-  </si>
-  <si>
-    <t>Q17853087</t>
-  </si>
-  <si>
-    <t>blindness</t>
-  </si>
-  <si>
-    <t>Q10874</t>
-  </si>
-  <si>
-    <t>11976340t</t>
-  </si>
-  <si>
-    <t>Q112193867;Q112965645</t>
-  </si>
-  <si>
-    <t>symptom or sign;class of disease</t>
-  </si>
-  <si>
-    <t>exact_safety_net</t>
-  </si>
-  <si>
     <t>Chemical vapor deposition</t>
   </si>
   <si>
@@ -861,81 +726,6 @@
     <t>Q744818</t>
   </si>
   <si>
-    <t>collage</t>
-  </si>
-  <si>
-    <t>Q22669857</t>
-  </si>
-  <si>
-    <t>Q1792644</t>
-  </si>
-  <si>
-    <t>art style</t>
-  </si>
-  <si>
-    <t>ontology concept definition</t>
-  </si>
-  <si>
-    <t>Q106205899</t>
-  </si>
-  <si>
-    <t>aldehydo-D-glucose</t>
-  </si>
-  <si>
-    <t>Q21036645</t>
-  </si>
-  <si>
-    <t>CPSG_04633-t26_1</t>
-  </si>
-  <si>
-    <t>Q62863961</t>
-  </si>
-  <si>
-    <t>Glucose dehydrogenase Dmel_CG1152</t>
-  </si>
-  <si>
-    <t>Q29814692</t>
-  </si>
-  <si>
-    <t>graphical widget</t>
-  </si>
-  <si>
-    <t>Q605117</t>
-  </si>
-  <si>
-    <t>dioxygen</t>
-  </si>
-  <si>
-    <t>Q5203615</t>
-  </si>
-  <si>
-    <t>Essentials</t>
-  </si>
-  <si>
-    <t>Q2605789</t>
-  </si>
-  <si>
-    <t>Q3646467</t>
-  </si>
-  <si>
-    <t>budget range</t>
-  </si>
-  <si>
-    <t>chemical element;chalcophile element;simple substance</t>
-  </si>
-  <si>
-    <t>chemical element;chalcophile element;superconducting element;metal</t>
-  </si>
-  <si>
-    <t>chemical element;chalcophile element;superconducting element;simple substance</t>
-  </si>
-  <si>
-    <t>government budget</t>
-  </si>
-  <si>
-    <t>Q271855</t>
-  </si>
-  <si>
     <t>scythe</t>
   </si>
   <si>
@@ -948,42 +738,9 @@
     <t>agricultural tool;weapon family</t>
   </si>
   <si>
-    <t>watercourse</t>
-  </si>
-  <si>
-    <t>Q355304</t>
-  </si>
-  <si>
-    <t>11952208p</t>
-  </si>
-  <si>
-    <t>Q12046615</t>
-  </si>
-  <si>
-    <t>feature type</t>
-  </si>
-  <si>
-    <t>political group of the European Parliament;non-attached</t>
-  </si>
-  <si>
     <t>Mod2b vs 2a</t>
   </si>
   <si>
-    <t>European route E80</t>
-  </si>
-  <si>
-    <t>Q877647</t>
-  </si>
-  <si>
-    <t>Q34442</t>
-  </si>
-  <si>
-    <t>road</t>
-  </si>
-  <si>
-    <t>Q101007233;Q4220917</t>
-  </si>
-  <si>
     <t>11952827m</t>
   </si>
   <si>
@@ -993,19 +750,262 @@
     <t>type of meteorological phenomenon</t>
   </si>
   <si>
-    <t>boiler feedwater</t>
-  </si>
-  <si>
-    <t>Q351261</t>
-  </si>
-  <si>
-    <t>method;field of study</t>
-  </si>
-  <si>
-    <t>film award;film critics association</t>
-  </si>
-  <si>
-    <t>open-access publisher;funding body;vice-ministerial level institution;government agency</t>
+    <t>field of study;method</t>
+  </si>
+  <si>
+    <t>11975888z</t>
+  </si>
+  <si>
+    <t>Q3382117</t>
+  </si>
+  <si>
+    <t>chemical phenomenon</t>
+  </si>
+  <si>
+    <t>mode_score</t>
+  </si>
+  <si>
+    <t>collagen</t>
+  </si>
+  <si>
+    <t>Q26868</t>
+  </si>
+  <si>
+    <t>Q5058355;Q78155096</t>
+  </si>
+  <si>
+    <t>cellular component;family of protein complexes</t>
+  </si>
+  <si>
+    <t>biosensor</t>
+  </si>
+  <si>
+    <t>Q669391</t>
+  </si>
+  <si>
+    <t>12125424b</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>Q13582682</t>
+  </si>
+  <si>
+    <t>Q116505632</t>
+  </si>
+  <si>
+    <t>type of process</t>
+  </si>
+  <si>
+    <t>glucose</t>
+  </si>
+  <si>
+    <t>Q37525</t>
+  </si>
+  <si>
+    <t>Q136192523;Q15711994</t>
+  </si>
+  <si>
+    <t>glucose oxidase</t>
+  </si>
+  <si>
+    <t>Q419321</t>
+  </si>
+  <si>
+    <t>Q67015883</t>
+  </si>
+  <si>
+    <t>group or class of enzymes</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>Q101072</t>
+  </si>
+  <si>
+    <t>11959122n</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>Q338754</t>
+  </si>
+  <si>
+    <t>11979352j</t>
+  </si>
+  <si>
+    <t>Q18340964;Q96758092</t>
+  </si>
+  <si>
+    <t>oxygen</t>
+  </si>
+  <si>
+    <t>Q629</t>
+  </si>
+  <si>
+    <t>11977353d</t>
+  </si>
+  <si>
+    <t>Q1130479;Q11344;Q19600</t>
+  </si>
+  <si>
+    <t>platinum</t>
+  </si>
+  <si>
+    <t>Q880</t>
+  </si>
+  <si>
+    <t>11933151c</t>
+  </si>
+  <si>
+    <t>Q11344</t>
+  </si>
+  <si>
+    <t>chemical element</t>
+  </si>
+  <si>
+    <t>open-access publisher;vice-ministerial level institution;funding body;government agency</t>
+  </si>
+  <si>
+    <t>group of isomeric entities;simple carbohydrates</t>
+  </si>
+  <si>
+    <t>power;type of regulation and control</t>
+  </si>
+  <si>
+    <t>nonmetal;chemical element;lithophile</t>
+  </si>
+  <si>
+    <t>chemical element;lithophile;essential medicine</t>
+  </si>
+  <si>
+    <t>chemical element;simple substance;chalcophile element</t>
+  </si>
+  <si>
+    <t>cadmium</t>
+  </si>
+  <si>
+    <t>Q1091</t>
+  </si>
+  <si>
+    <t>11956626p</t>
+  </si>
+  <si>
+    <t>Q11344;Q1929547</t>
+  </si>
+  <si>
+    <t>chemical element;chalcophile element</t>
+  </si>
+  <si>
+    <t>zinc</t>
+  </si>
+  <si>
+    <t>Q758</t>
+  </si>
+  <si>
+    <t>metal;superconducting element;chemical element;chalcophile element</t>
+  </si>
+  <si>
+    <t>superconducting element;chemical element;simple substance;chalcophile element</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>Q41263</t>
+  </si>
+  <si>
+    <t>Q1047113;Q2267705</t>
+  </si>
+  <si>
+    <t>field of study;field of study</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>Q4022</t>
+  </si>
+  <si>
+    <t>Q125824188;Q1428660</t>
+  </si>
+  <si>
+    <t>ecosystem type;type of watercourse</t>
+  </si>
+  <si>
+    <t>Q6854084</t>
+  </si>
+  <si>
+    <t>Q101352;Q1093580</t>
+  </si>
+  <si>
+    <t>family name;Chinese family name</t>
+  </si>
+  <si>
+    <t>Q1907875</t>
+  </si>
+  <si>
+    <t>master's thesis</t>
+  </si>
+  <si>
+    <t>trace element</t>
+  </si>
+  <si>
+    <t>Q351792</t>
+  </si>
+  <si>
+    <t>11975502k</t>
+  </si>
+  <si>
+    <t>Cao</t>
+  </si>
+  <si>
+    <t>Q284964</t>
+  </si>
+  <si>
+    <t>Q10904438;Q836688</t>
+  </si>
+  <si>
+    <t>ancient Chinese state;Twelve Vassals</t>
+  </si>
+  <si>
+    <t>Q3331189</t>
+  </si>
+  <si>
+    <t>version, edition or translation</t>
+  </si>
+  <si>
+    <t>composite</t>
+  </si>
+  <si>
+    <t>Q66539734</t>
+  </si>
+  <si>
+    <t>blend</t>
+  </si>
+  <si>
+    <t>Q12055133</t>
+  </si>
+  <si>
+    <t>Crystallization</t>
+  </si>
+  <si>
+    <t>Q3002827</t>
+  </si>
+  <si>
+    <t>Q151885</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>Q1640043</t>
+  </si>
+  <si>
+    <t>Wrong</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1370,6 +1370,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1531,7 +1555,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1540,6 +1564,10 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1605,12 +1633,14 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="v2"/>
       <sheetName val="Summary"/>
+      <sheetName val="Wikidata_upec_chemical_20_2"/>
       <sheetName val="Wikidata_upec_chemical_20"/>
       <sheetName val="Sheet2"/>
       <sheetName val="Wikidata_upec_civil_20"/>
       <sheetName val="Wikidata_upec_civil_20_part2"/>
-      <sheetName val="Sheet1"/>
+      <sheetName val="v1"/>
       <sheetName val="Wikidata_upec_computer_20"/>
       <sheetName val="Wikidata_upec_computer_20_check"/>
       <sheetName val="Wikidata_upec_political_20"/>
@@ -1619,7 +1649,9 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
         <row r="1">
           <cell r="C1" t="str">
             <v>keyword</v>
@@ -4226,13 +4258,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8696,17 +8728,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B0F430-0357-4ED2-80C0-C755800CD5D2}">
-  <dimension ref="A1:Y106"/>
+  <dimension ref="A1:Z106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Y10" sqref="A10:Y10"/>
+    <sheetView tabSelected="1" topLeftCell="F88" workbookViewId="0">
+      <selection activeCell="U106" sqref="U106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" customWidth="1"/>
     <col min="23" max="23" width="11.88671875" customWidth="1"/>
     <col min="24" max="24" width="10.6640625" customWidth="1"/>
   </cols>
@@ -8730,56 +8762,54 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
@@ -8787,23 +8817,23 @@
         <v>1006198</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="K2" s="6">
         <v>0</v>
@@ -8845,12 +8875,6 @@
         <f>IF(T2&lt;&gt;Q2,"Mod","")</f>
         <v/>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
       <c r="Y2" s="3" t="str">
         <f>IF(X2&lt;&gt;E2,"Mod","")</f>
         <v/>
@@ -8861,23 +8885,23 @@
         <v>1006198</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="K3" s="6">
         <v>0</v>
@@ -8919,12 +8943,6 @@
         <f t="shared" ref="V3:V67" si="2">IF(T3&lt;&gt;Q3,"Mod","")</f>
         <v/>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
       <c r="Y3" s="3" t="str">
         <f t="shared" ref="Y3:Y66" si="3">IF(X3&lt;&gt;E3,"Mod","")</f>
         <v/>
@@ -8935,33 +8953,33 @@
         <v>1006198</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L4" s="6">
-        <v>68.5</v>
+        <v>39.4</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -8998,10 +9016,10 @@
         <v/>
       </c>
       <c r="W4" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" t="s">
         <v>19</v>
-      </c>
-      <c r="X4" t="s">
-        <v>20</v>
       </c>
       <c r="Y4" s="3" t="str">
         <f t="shared" si="3"/>
@@ -9013,23 +9031,23 @@
         <v>1006198</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="K5" s="6">
         <v>0</v>
@@ -9071,12 +9089,6 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
       <c r="Y5" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9087,23 +9099,23 @@
         <v>1006198</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="K6" s="6">
         <v>0</v>
@@ -9145,12 +9157,6 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
       <c r="Y6" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9161,33 +9167,33 @@
         <v>1006198</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L7" s="6">
-        <v>125.5</v>
+        <v>52.8</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -9216,17 +9222,17 @@
         <v>Q505668</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="V7" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(T7&lt;&gt;Q7,"Mod","")</f>
         <v>Mod</v>
       </c>
       <c r="W7" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="X7" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="Y7" s="3" t="str">
         <f t="shared" si="3"/>
@@ -9238,23 +9244,23 @@
         <v>1006198</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="K8" s="6">
         <v>0</v>
@@ -9296,12 +9302,6 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
       <c r="Y8" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9312,41 +9312,41 @@
         <v>1006198</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="6">
-        <v>85.9</v>
+        <v>50.7</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="O9" s="1" t="str">
         <f>VLOOKUP(C9,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -9381,10 +9381,10 @@
         <v/>
       </c>
       <c r="W9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="X9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y9" s="3" t="str">
         <f t="shared" si="3"/>
@@ -9396,36 +9396,42 @@
         <v>1025697</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>237</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="6">
-        <v>122.7</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+        <v>64.8</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>239</v>
+      </c>
       <c r="O10" s="1" t="str">
         <f>VLOOKUP(C10,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>Q5173028</v>
@@ -9448,24 +9454,24 @@
       </c>
       <c r="T10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q351261</v>
+        <v>Q137056</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="V10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Mod</v>
+        <v/>
       </c>
       <c r="W10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y10" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mod</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
@@ -9473,23 +9479,23 @@
         <v>1025697</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="K11" s="6">
         <v>0</v>
@@ -9531,12 +9537,6 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
       <c r="Y11" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9547,23 +9547,23 @@
         <v>1025697</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="K12" s="6">
         <v>0</v>
@@ -9605,12 +9605,6 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
       <c r="Y12" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9621,40 +9615,36 @@
         <v>1025697</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>309</v>
+        <v>226</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L13" s="6">
-        <v>115.8</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>312</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
       <c r="O13" s="1" t="str">
         <f>VLOOKUP(C13,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>Q36531</v>
@@ -9677,24 +9667,24 @@
       </c>
       <c r="T13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q877647</v>
+        <v>Q744818</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="V13" s="5" t="str">
+        <v>183</v>
+      </c>
+      <c r="V13" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Mod</v>
       </c>
       <c r="W13" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="X13" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="Y13" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mod</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
@@ -9702,23 +9692,23 @@
         <v>1025697</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="K14" s="6">
         <v>0</v>
@@ -9760,12 +9750,6 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9776,7 +9760,7 @@
         <v>1060481</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="6">
         <v>20902069</v>
@@ -9786,13 +9770,13 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="K15" s="6">
         <v>0</v>
@@ -9834,12 +9818,6 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
       <c r="Y15" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -9850,39 +9828,39 @@
         <v>1060481</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="E16" s="6" t="s">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L16" s="6">
-        <v>113.2</v>
+        <v>7.4</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>313</v>
+        <v>42</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="O16" s="1">
         <f>VLOOKUP(C16,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -9906,25 +9884,25 @@
       </c>
       <c r="T16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q1206671</v>
+        <v>Q4501917</v>
       </c>
       <c r="U16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ok</v>
       </c>
-      <c r="V16" s="5" t="str">
+      <c r="V16" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Mod</v>
       </c>
       <c r="W16" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y16" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>Mod</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
@@ -9932,39 +9910,39 @@
         <v>1060481</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="6">
-        <v>63.3</v>
+        <v>41</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="O17" s="1" t="str">
         <f>VLOOKUP(C17,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -9999,10 +9977,10 @@
         <v/>
       </c>
       <c r="W17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="X17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y17" s="3" t="str">
         <f t="shared" si="3"/>
@@ -10014,7 +9992,7 @@
         <v>1060481</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="6">
         <v>21074094</v>
@@ -10024,13 +10002,13 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="K18" s="6">
         <v>0</v>
@@ -10072,12 +10050,6 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -10088,7 +10060,7 @@
         <v>1060481</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="6">
         <v>51173134</v>
@@ -10098,13 +10070,13 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="K19" s="6">
         <v>0</v>
@@ -10146,12 +10118,6 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
       <c r="Y19" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -10162,23 +10128,23 @@
         <v>1064801</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="K20" s="6">
         <v>0</v>
@@ -10220,12 +10186,6 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -10236,23 +10196,23 @@
         <v>1064801</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="K21" s="6">
         <v>0</v>
@@ -10294,12 +10254,6 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -10310,23 +10264,23 @@
         <v>1064801</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="K22" s="6">
         <v>0</v>
@@ -10368,12 +10322,6 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -10384,39 +10332,39 @@
         <v>1064801</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K23" s="6">
-        <v>96.8</v>
+        <v>0</v>
       </c>
       <c r="L23" s="6">
-        <v>81.099999999999994</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O23" s="1" t="str">
         <f>VLOOKUP(C23,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -10451,10 +10399,10 @@
         <v/>
       </c>
       <c r="W23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="X23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Y23" s="3" t="str">
         <f t="shared" si="3"/>
@@ -10466,23 +10414,23 @@
         <v>1067996</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="K24" s="6">
         <v>0</v>
@@ -10524,12 +10472,6 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -10540,41 +10482,41 @@
         <v>1067996</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="F25" s="6" t="s">
-        <v>314</v>
+        <v>233</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K25" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L25" s="6">
-        <v>151.80000000000001</v>
+        <v>73.7</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>315</v>
+        <v>234</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>316</v>
+        <v>235</v>
       </c>
       <c r="O25" s="1" t="str">
         <f>VLOOKUP(C25,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -10609,10 +10551,10 @@
         <v/>
       </c>
       <c r="W25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Y25" s="3" t="str">
         <f t="shared" si="3"/>
@@ -10624,23 +10566,23 @@
         <v>1067996</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="K26" s="6">
         <v>0</v>
@@ -10682,12 +10624,6 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -10698,23 +10634,23 @@
         <v>1067996</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="K27" s="6">
         <v>0</v>
@@ -10756,12 +10692,6 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -10772,23 +10702,23 @@
         <v>1067996</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="K28" s="6">
         <v>0</v>
@@ -10830,42 +10760,42 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
       <c r="Y28" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="8">
         <v>1078652</v>
       </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="B29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
+      <c r="K29" s="8">
+        <v>0</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0</v>
+      </c>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
       <c r="O29" s="1">
         <f>VLOOKUP(C29,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -10898,48 +10828,46 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="8">
         <v>1078652</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D30" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" t="s">
-        <v>263</v>
-      </c>
-      <c r="I30" t="s">
-        <v>263</v>
-      </c>
-      <c r="J30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30">
-        <v>100</v>
-      </c>
-      <c r="L30">
-        <v>109.9</v>
-      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0</v>
+      </c>
+      <c r="L30" s="8">
+        <v>43.7</v>
+      </c>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
       <c r="O30" s="1" t="str">
         <f>VLOOKUP(C30,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>Q7135015</v>
@@ -10973,10 +10901,10 @@
         <v/>
       </c>
       <c r="W30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Y30" s="3" t="str">
         <f t="shared" si="3"/>
@@ -10984,36 +10912,40 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="8">
         <v>1078652</v>
       </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" t="s">
-        <v>198</v>
-      </c>
-      <c r="E31" t="s">
-        <v>199</v>
-      </c>
-      <c r="H31" t="s">
-        <v>263</v>
-      </c>
-      <c r="I31" t="s">
-        <v>263</v>
-      </c>
-      <c r="J31" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31">
-        <v>100</v>
-      </c>
-      <c r="L31">
-        <v>98.9</v>
-      </c>
+      <c r="B31" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" s="8">
+        <v>0</v>
+      </c>
+      <c r="L31" s="8">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
       <c r="O31" s="1">
         <f>VLOOKUP(C31,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -11038,19 +10970,18 @@
         <f t="shared" si="0"/>
         <v>Q902061</v>
       </c>
-      <c r="U31" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-      <c r="V31" s="5" t="str">
+      <c r="U31" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V31" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Mod</v>
       </c>
       <c r="W31" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="X31" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="Y31" s="3" t="str">
         <f t="shared" si="3"/>
@@ -11058,30 +10989,36 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="8">
         <v>1078652</v>
       </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" t="s">
+      <c r="B32" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I32" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
+      <c r="K32" s="8">
+        <v>0</v>
+      </c>
+      <c r="L32" s="8">
+        <v>0</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
       <c r="O32" s="1">
         <f>VLOOKUP(C32,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -11114,42 +11051,42 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="8">
         <v>1078652</v>
       </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="B33" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
+      <c r="K33" s="8">
+        <v>0</v>
+      </c>
+      <c r="L33" s="8">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
       <c r="O33" s="1">
         <f>VLOOKUP(C33,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -11182,48 +11119,46 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="8">
         <v>1078652</v>
       </c>
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" t="s">
-        <v>17</v>
-      </c>
-      <c r="K34">
-        <v>97.6</v>
-      </c>
-      <c r="L34">
-        <v>75.900000000000006</v>
-      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="8">
+        <v>0</v>
+      </c>
+      <c r="L34" s="8">
+        <v>40.9</v>
+      </c>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
       <c r="O34" s="1" t="str">
         <f>VLOOKUP(C34,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>Q25305554</v>
@@ -11257,10 +11192,10 @@
         <v/>
       </c>
       <c r="W34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="X34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Y34" s="3" t="str">
         <f t="shared" si="3"/>
@@ -11268,41 +11203,43 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="8">
         <v>1078652</v>
       </c>
-      <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" t="s">
-        <v>200</v>
-      </c>
-      <c r="E35" t="s">
-        <v>201</v>
-      </c>
-      <c r="H35" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35">
-        <v>97.8</v>
-      </c>
-      <c r="L35">
-        <v>147.9</v>
-      </c>
-      <c r="M35" t="s">
-        <v>202</v>
-      </c>
-      <c r="N35" t="s">
-        <v>203</v>
+      <c r="B35" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35" s="8">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8">
+        <v>17.3</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="O35" s="1" t="str">
         <f>VLOOKUP(C35,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -11328,19 +11265,18 @@
         <f t="shared" si="0"/>
         <v>Q232207</v>
       </c>
-      <c r="U35" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-      <c r="V35" s="5" t="str">
+      <c r="U35" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V35" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Mod</v>
       </c>
       <c r="W35" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="X35" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="Y35" s="3" t="str">
         <f t="shared" si="3"/>
@@ -11348,30 +11284,36 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="8">
         <v>1078896</v>
       </c>
-      <c r="B36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" t="s">
-        <v>75</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="B36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I36" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
+      <c r="K36" s="8">
+        <v>0</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0</v>
+      </c>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
       <c r="O36" s="1">
         <f>VLOOKUP(C36,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -11404,53 +11346,49 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
       <c r="Y36" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="8">
         <v>1078896</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+      <c r="L37" s="8">
+        <v>60</v>
+      </c>
+      <c r="M37" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E37" t="s">
+      <c r="N37" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="H37" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37">
-        <v>96.3</v>
-      </c>
-      <c r="L37">
-        <v>216.3</v>
-      </c>
-      <c r="M37" t="s">
-        <v>79</v>
-      </c>
-      <c r="N37" t="s">
-        <v>80</v>
       </c>
       <c r="O37" s="1" t="str">
         <f>VLOOKUP(C37,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -11485,10 +11423,10 @@
         <v/>
       </c>
       <c r="W37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="X37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Y37" s="3" t="str">
         <f t="shared" si="3"/>
@@ -11496,41 +11434,43 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="8">
         <v>1078896</v>
       </c>
-      <c r="B38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" t="s">
-        <v>204</v>
-      </c>
-      <c r="E38" t="s">
-        <v>205</v>
-      </c>
-      <c r="H38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" t="s">
-        <v>17</v>
-      </c>
-      <c r="K38">
-        <v>96.8</v>
-      </c>
-      <c r="L38">
-        <v>86.5</v>
-      </c>
-      <c r="M38" t="s">
-        <v>52</v>
-      </c>
-      <c r="N38" t="s">
-        <v>53</v>
+      <c r="B38" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="8">
+        <v>0</v>
+      </c>
+      <c r="L38" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="O38" s="1">
         <f>VLOOKUP(C38,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -11556,19 +11496,18 @@
         <f t="shared" si="0"/>
         <v>Q55511438</v>
       </c>
-      <c r="U38" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-      <c r="V38" s="5" t="str">
+      <c r="U38" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V38" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Mod</v>
       </c>
       <c r="W38" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="X38" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="Y38" s="3" t="str">
         <f t="shared" si="3"/>
@@ -11576,30 +11515,36 @@
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="8">
         <v>1083001</v>
       </c>
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" t="s">
-        <v>83</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="B39" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I39" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
+      <c r="K39" s="8">
+        <v>0</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0</v>
+      </c>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
       <c r="O39" s="1">
         <f>VLOOKUP(C39,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -11632,42 +11577,42 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
       <c r="Y39" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="8">
         <v>1083001</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I40" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
       <c r="O40" s="1">
         <f>VLOOKUP(C40,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -11700,53 +11645,49 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
       <c r="Y40" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="8">
         <v>1083001</v>
       </c>
-      <c r="B41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" t="s">
-        <v>273</v>
-      </c>
-      <c r="E41" t="s">
-        <v>274</v>
-      </c>
-      <c r="H41" t="s">
-        <v>263</v>
-      </c>
-      <c r="I41" t="s">
-        <v>263</v>
-      </c>
-      <c r="J41" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41">
-        <v>100</v>
-      </c>
-      <c r="L41">
-        <v>90.8</v>
-      </c>
-      <c r="M41" t="s">
-        <v>275</v>
-      </c>
-      <c r="N41" t="s">
-        <v>276</v>
+      <c r="B41" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="8">
+        <v>0</v>
+      </c>
+      <c r="L41" s="8">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="O41" s="1" t="str">
         <f>VLOOKUP(C41,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -11770,21 +11711,21 @@
       </c>
       <c r="T41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q22669857</v>
+        <v>Q26868</v>
       </c>
       <c r="U41" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ok</v>
       </c>
-      <c r="V41" s="5" t="str">
+      <c r="V41" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Mod</v>
+        <v/>
       </c>
       <c r="W41" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="X41" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="Y41" s="3" t="str">
         <f t="shared" si="3"/>
@@ -11792,36 +11733,42 @@
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="8">
         <v>1083001</v>
       </c>
-      <c r="B42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" t="s">
-        <v>206</v>
-      </c>
-      <c r="E42" t="s">
-        <v>207</v>
-      </c>
-      <c r="H42" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42">
-        <v>94.7</v>
-      </c>
-      <c r="L42">
-        <v>116</v>
-      </c>
+      <c r="B42" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42" s="8">
+        <v>0</v>
+      </c>
+      <c r="L42" s="8">
+        <v>45</v>
+      </c>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
       <c r="O42" s="1" t="str">
         <f>VLOOKUP(C42,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>Q27709294</v>
@@ -11844,21 +11791,21 @@
       </c>
       <c r="T42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q591745</v>
+        <v>Q669391</v>
       </c>
       <c r="U42" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ok</v>
       </c>
-      <c r="V42" s="5" t="str">
+      <c r="V42" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Mod</v>
+        <v/>
       </c>
       <c r="W42" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="X42" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="Y42" s="3" t="str">
         <f t="shared" si="3"/>
@@ -11866,30 +11813,36 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="8">
         <v>1083004</v>
       </c>
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" t="s">
-        <v>88</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="B43" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I43" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
+      <c r="K43" s="8">
+        <v>0</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0</v>
+      </c>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
       <c r="O43" s="1">
         <f>VLOOKUP(C43,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -11922,53 +11875,51 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
       <c r="Y43" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="8">
         <v>1083004</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C44" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" t="s">
-        <v>208</v>
-      </c>
-      <c r="E44" t="s">
-        <v>209</v>
-      </c>
-      <c r="H44" t="s">
-        <v>263</v>
-      </c>
-      <c r="I44" t="s">
-        <v>263</v>
-      </c>
-      <c r="J44" t="s">
-        <v>17</v>
-      </c>
-      <c r="K44">
-        <v>100</v>
-      </c>
-      <c r="L44">
-        <v>198</v>
-      </c>
-      <c r="M44" t="s">
-        <v>210</v>
-      </c>
-      <c r="N44" t="s">
-        <v>211</v>
+      <c r="D44" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F44" s="8">
+        <v>133183064</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44" s="8">
+        <v>0</v>
+      </c>
+      <c r="L44" s="8">
+        <v>54.4</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="O44" s="1" t="str">
         <f>VLOOKUP(C44,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -11992,21 +11943,21 @@
       </c>
       <c r="T44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q1503443</v>
+        <v>Q13582682</v>
       </c>
       <c r="U44" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ok</v>
       </c>
-      <c r="V44" s="5" t="str">
+      <c r="V44" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Mod</v>
+        <v/>
       </c>
       <c r="W44" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="X44" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="Y44" s="3" t="str">
         <f t="shared" si="3"/>
@@ -12014,36 +11965,42 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="8">
         <v>1083004</v>
       </c>
-      <c r="B45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" t="s">
-        <v>277</v>
-      </c>
-      <c r="E45" t="s">
-        <v>278</v>
-      </c>
-      <c r="H45" t="s">
-        <v>263</v>
-      </c>
-      <c r="I45" t="s">
-        <v>263</v>
-      </c>
-      <c r="J45" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45">
-        <v>100</v>
-      </c>
-      <c r="L45">
-        <v>102.9</v>
-      </c>
+      <c r="B45" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="8">
+        <v>0</v>
+      </c>
+      <c r="L45" s="8">
+        <v>50.1</v>
+      </c>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
       <c r="O45" s="1" t="str">
         <f>VLOOKUP(C45,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>Q16247949</v>
@@ -12066,21 +12023,20 @@
       </c>
       <c r="T45" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q106205899</v>
-      </c>
-      <c r="U45" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Wrong</v>
-      </c>
-      <c r="V45" s="5" t="str">
+        <v>Q101072</v>
+      </c>
+      <c r="U45" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V45" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Mod</v>
       </c>
       <c r="W45" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="X45" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="Y45" s="3" t="str">
         <f t="shared" si="3"/>
@@ -12088,30 +12044,36 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="8">
         <v>1083007</v>
       </c>
-      <c r="B46" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" t="s">
-        <v>88</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="B46" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I46" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
+      <c r="K46" s="8">
+        <v>0</v>
+      </c>
+      <c r="L46" s="8">
+        <v>0</v>
+      </c>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
       <c r="O46" s="1">
         <f>VLOOKUP(C46,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -12144,54 +12106,42 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
       <c r="Y46" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="8">
         <v>1083007</v>
       </c>
-      <c r="B47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" t="s">
-        <v>93</v>
-      </c>
-      <c r="H47" t="s">
-        <v>263</v>
-      </c>
-      <c r="I47" t="s">
-        <v>263</v>
-      </c>
-      <c r="J47" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47">
-        <v>100</v>
-      </c>
-      <c r="L47">
-        <v>171.9</v>
-      </c>
-      <c r="M47" t="s">
-        <v>94</v>
-      </c>
-      <c r="N47" t="s">
-        <v>95</v>
-      </c>
+      <c r="B47" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="8">
+        <v>0</v>
+      </c>
+      <c r="L47" s="8">
+        <v>0</v>
+      </c>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
       <c r="O47" s="1" t="str">
         <f>VLOOKUP(C47,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>Q124665234</v>
@@ -12212,23 +12162,16 @@
         <f>VLOOKUP(C47,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v/>
       </c>
-      <c r="T47" s="3" t="str">
+      <c r="T47" s="3">
         <f t="shared" si="0"/>
-        <v>Q124665234</v>
-      </c>
-      <c r="U47" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Wrong</v>
+        <v>0</v>
+      </c>
+      <c r="U47" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="V47" s="3" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="W47" t="s">
-        <v>92</v>
-      </c>
-      <c r="X47" t="s">
-        <v>93</v>
+        <v>Mod</v>
       </c>
       <c r="Y47" s="3" t="str">
         <f t="shared" si="3"/>
@@ -12236,41 +12179,43 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="8">
         <v>1083007</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C48" t="s">
-        <v>96</v>
-      </c>
-      <c r="D48" t="s">
-        <v>279</v>
-      </c>
-      <c r="E48" t="s">
-        <v>280</v>
-      </c>
-      <c r="H48" t="s">
-        <v>263</v>
-      </c>
-      <c r="I48" t="s">
-        <v>263</v>
-      </c>
-      <c r="J48" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48">
-        <v>100</v>
-      </c>
-      <c r="L48">
-        <v>86.9</v>
-      </c>
-      <c r="M48" t="s">
-        <v>127</v>
-      </c>
-      <c r="N48" t="s">
-        <v>128</v>
+      <c r="D48" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K48" s="8">
+        <v>0</v>
+      </c>
+      <c r="L48" s="8">
+        <v>64.3</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="O48" s="1" t="str">
         <f>VLOOKUP(C48,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12294,63 +12239,65 @@
       </c>
       <c r="T48" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q21036645</v>
+        <v>Q37525</v>
       </c>
       <c r="U48" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ok</v>
       </c>
-      <c r="V48" s="5" t="str">
+      <c r="V48" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Mod</v>
+        <v/>
       </c>
       <c r="W48" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="X48" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="Y48" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
         <v>1083007</v>
       </c>
-      <c r="B49" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" t="s">
-        <v>281</v>
-      </c>
-      <c r="E49" t="s">
-        <v>282</v>
-      </c>
-      <c r="H49" t="s">
-        <v>263</v>
-      </c>
-      <c r="I49" t="s">
-        <v>263</v>
-      </c>
-      <c r="J49" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49">
-        <v>100</v>
-      </c>
-      <c r="L49">
-        <v>105.9</v>
-      </c>
-      <c r="M49" t="s">
-        <v>98</v>
-      </c>
-      <c r="N49" t="s">
-        <v>99</v>
+      <c r="B49" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="8">
+        <v>0</v>
+      </c>
+      <c r="L49" s="8">
+        <v>53.5</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="O49" s="1" t="str">
         <f>VLOOKUP(C49,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12374,52 +12321,57 @@
       </c>
       <c r="T49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q62863961</v>
-      </c>
-      <c r="U49" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Wrong</v>
-      </c>
-      <c r="V49" s="5" t="str">
+        <v>Q419321</v>
+      </c>
+      <c r="U49" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V49" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Mod</v>
       </c>
       <c r="W49" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="X49" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="Y49" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
         <v>1083014</v>
       </c>
-      <c r="B50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" t="s">
-        <v>88</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="B50" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I50" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
+      <c r="K50" s="10">
+        <v>0</v>
+      </c>
+      <c r="L50" s="10">
+        <v>0</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
       <c r="O50" s="1">
         <f>VLOOKUP(C50,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -12452,53 +12404,49 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
       <c r="Y50" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
         <v>1083014</v>
       </c>
-      <c r="B51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" t="s">
-        <v>279</v>
-      </c>
-      <c r="E51" t="s">
-        <v>280</v>
-      </c>
-      <c r="H51" t="s">
-        <v>263</v>
-      </c>
-      <c r="I51" t="s">
-        <v>263</v>
-      </c>
-      <c r="J51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51">
-        <v>100</v>
-      </c>
-      <c r="L51">
-        <v>102.1</v>
-      </c>
-      <c r="M51" t="s">
-        <v>127</v>
-      </c>
-      <c r="N51" t="s">
-        <v>128</v>
+      <c r="B51" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="10">
+        <v>0</v>
+      </c>
+      <c r="L51" s="10">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="N51" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="O51" s="1" t="str">
         <f>VLOOKUP(C51,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12522,63 +12470,65 @@
       </c>
       <c r="T51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q21036645</v>
+        <v>Q37525</v>
       </c>
       <c r="U51" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ok</v>
       </c>
-      <c r="V51" s="5" t="str">
+      <c r="V51" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Mod</v>
+        <v/>
       </c>
       <c r="W51" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="X51" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="Y51" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
         <v>1083014</v>
       </c>
-      <c r="B52" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" t="s">
-        <v>283</v>
-      </c>
-      <c r="E52" t="s">
-        <v>284</v>
-      </c>
-      <c r="H52" t="s">
-        <v>263</v>
-      </c>
-      <c r="I52" t="s">
-        <v>263</v>
-      </c>
-      <c r="J52" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52">
-        <v>100</v>
-      </c>
-      <c r="L52">
-        <v>101</v>
-      </c>
-      <c r="M52" t="s">
-        <v>98</v>
-      </c>
-      <c r="N52" t="s">
-        <v>99</v>
+      <c r="B52" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="10">
+        <v>0</v>
+      </c>
+      <c r="L52" s="10">
+        <v>59.5</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="O52" s="1" t="str">
         <f>VLOOKUP(C52,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12602,63 +12552,64 @@
       </c>
       <c r="T52" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q29814692</v>
-      </c>
-      <c r="U52" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Wrong</v>
-      </c>
-      <c r="V52" s="5" t="str">
+        <v>Q419321</v>
+      </c>
+      <c r="U52" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V52" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Mod</v>
       </c>
       <c r="W52" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="X52" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="Y52" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
         <v>1083157</v>
       </c>
-      <c r="B53" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" t="s">
-        <v>212</v>
-      </c>
-      <c r="E53" t="s">
-        <v>213</v>
-      </c>
-      <c r="H53" t="s">
-        <v>263</v>
-      </c>
-      <c r="I53" t="s">
-        <v>263</v>
-      </c>
-      <c r="J53" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53">
-        <v>100</v>
-      </c>
-      <c r="L53">
-        <v>171.3</v>
-      </c>
-      <c r="M53" t="s">
-        <v>214</v>
-      </c>
-      <c r="N53" t="s">
-        <v>215</v>
+      <c r="B53" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="10">
+        <v>0</v>
+      </c>
+      <c r="L53" s="10">
+        <v>52.9</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="O53" s="1">
         <f>VLOOKUP(C53,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12684,50 +12635,55 @@
         <f t="shared" si="0"/>
         <v>Q501353</v>
       </c>
-      <c r="U53" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-      <c r="V53" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="U53" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V53" s="3" t="str">
+        <f t="shared" ref="V53" si="4">IF(T53&lt;&gt;Q53,"Mod","")</f>
         <v>Mod</v>
       </c>
       <c r="W53" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="X53" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="Y53" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
         <v>1083157</v>
       </c>
-      <c r="B54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" t="s">
-        <v>103</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="B54" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I54" t="s">
-        <v>16</v>
-      </c>
-      <c r="J54" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
+      <c r="K54" s="10">
+        <v>0</v>
+      </c>
+      <c r="L54" s="10">
+        <v>0</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
       <c r="O54" s="1">
         <f>VLOOKUP(C54,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -12760,42 +12716,42 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
       <c r="Y54" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
         <v>1083160</v>
       </c>
-      <c r="B55" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" t="s">
-        <v>47</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="B55" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I55" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" t="s">
-        <v>17</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
+      <c r="K55" s="10">
+        <v>0</v>
+      </c>
+      <c r="L55" s="10">
+        <v>0</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
       <c r="O55" s="1">
         <f>VLOOKUP(C55,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -12828,42 +12784,42 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
       <c r="Y55" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
         <v>1083160</v>
       </c>
-      <c r="B56" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" t="s">
-        <v>75</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="B56" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I56" t="s">
-        <v>16</v>
-      </c>
-      <c r="J56" t="s">
-        <v>17</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
+      <c r="K56" s="10">
+        <v>0</v>
+      </c>
+      <c r="L56" s="10">
+        <v>0</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
       <c r="O56" s="1">
         <f>VLOOKUP(C56,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -12896,47 +12852,51 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
       <c r="Y56" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A57" s="10">
         <v>1084520</v>
       </c>
-      <c r="B57" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" t="s">
-        <v>285</v>
-      </c>
-      <c r="E57" t="s">
-        <v>286</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="B57" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="I57" t="s">
-        <v>263</v>
-      </c>
-      <c r="J57" t="s">
-        <v>17</v>
-      </c>
-      <c r="K57">
-        <v>100</v>
-      </c>
-      <c r="L57">
-        <v>118.6</v>
+      <c r="F57" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="10">
+        <v>0</v>
+      </c>
+      <c r="L57" s="10">
+        <v>49.9</v>
+      </c>
+      <c r="M57" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="N57" s="10" t="s">
+        <v>277</v>
       </c>
       <c r="O57" s="1" t="str">
         <f>VLOOKUP(C57,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -12960,7 +12920,7 @@
       </c>
       <c r="T57" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q605117</v>
+        <v>Q338754</v>
       </c>
       <c r="U57" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12971,47 +12931,51 @@
         <v>Mod</v>
       </c>
       <c r="W57" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="X57" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="Y57" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A58" s="10">
         <v>1084520</v>
       </c>
-      <c r="B58" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" t="s">
-        <v>109</v>
-      </c>
-      <c r="H58" t="s">
-        <v>263</v>
-      </c>
-      <c r="I58" t="s">
-        <v>263</v>
-      </c>
-      <c r="J58" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58">
+      <c r="B58" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="L58">
-        <v>129.5</v>
-      </c>
+      <c r="D58" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="10">
+        <v>0</v>
+      </c>
+      <c r="L58" s="10">
+        <v>48.9</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
       <c r="O58" s="1" t="str">
         <f>VLOOKUP(C58,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>Q28471383</v>
@@ -13045,47 +13009,51 @@
         <v/>
       </c>
       <c r="W58" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="X58" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="Y58" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A59" s="10">
         <v>1084520</v>
       </c>
-      <c r="B59" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" t="s">
-        <v>110</v>
-      </c>
-      <c r="D59" t="s">
-        <v>216</v>
-      </c>
-      <c r="E59" t="s">
-        <v>217</v>
-      </c>
-      <c r="H59" t="s">
-        <v>263</v>
-      </c>
-      <c r="I59" t="s">
-        <v>263</v>
-      </c>
-      <c r="J59" t="s">
-        <v>17</v>
-      </c>
-      <c r="K59">
-        <v>100</v>
-      </c>
-      <c r="L59">
-        <v>166.8</v>
-      </c>
+      <c r="B59" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="10">
+        <v>0</v>
+      </c>
+      <c r="L59" s="10">
+        <v>51.7</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
       <c r="O59" s="1" t="str">
         <f>VLOOKUP(C59,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>Q116719041</v>
@@ -13110,61 +13078,64 @@
         <f t="shared" si="0"/>
         <v>Q15242449</v>
       </c>
-      <c r="U59" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Wrong</v>
-      </c>
-      <c r="V59" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="U59" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V59" s="3" t="str">
+        <f t="shared" ref="V59" si="5">IF(T59&lt;&gt;Q59,"Mod","")</f>
         <v>Mod</v>
       </c>
       <c r="W59" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="X59" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="Y59" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A60" s="10">
         <v>1084520</v>
       </c>
-      <c r="B60" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" t="s">
-        <v>111</v>
-      </c>
-      <c r="D60" t="s">
-        <v>287</v>
-      </c>
-      <c r="E60" t="s">
-        <v>288</v>
-      </c>
-      <c r="H60" t="s">
-        <v>263</v>
-      </c>
-      <c r="I60" t="s">
-        <v>263</v>
-      </c>
-      <c r="J60" t="s">
-        <v>17</v>
-      </c>
-      <c r="K60">
-        <v>100</v>
-      </c>
-      <c r="L60">
-        <v>154.6</v>
-      </c>
-      <c r="M60" t="s">
-        <v>127</v>
-      </c>
-      <c r="N60" t="s">
-        <v>128</v>
+      <c r="B60" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="10">
+        <v>0</v>
+      </c>
+      <c r="L60" s="10">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="M60" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="N60" s="10" t="s">
+        <v>278</v>
       </c>
       <c r="O60" s="1" t="str">
         <f>VLOOKUP(C60,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13188,58 +13159,62 @@
       </c>
       <c r="T60" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Q5203615</v>
+        <v>Q629</v>
       </c>
       <c r="U60" s="3" t="str">
         <f t="shared" si="1"/>
         <v>ok</v>
       </c>
-      <c r="V60" s="5" t="str">
+      <c r="V60" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Mod</v>
+        <v/>
       </c>
       <c r="W60" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="X60" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="Y60" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
         <v>1084520</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C61" t="s">
-        <v>112</v>
-      </c>
-      <c r="D61" t="s">
-        <v>113</v>
-      </c>
-      <c r="E61" t="s">
-        <v>114</v>
-      </c>
-      <c r="H61" t="s">
-        <v>263</v>
-      </c>
-      <c r="I61" t="s">
-        <v>263</v>
-      </c>
-      <c r="J61" t="s">
-        <v>17</v>
-      </c>
-      <c r="K61">
-        <v>100</v>
-      </c>
-      <c r="L61">
-        <v>219.8</v>
-      </c>
+      <c r="D61" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" s="10">
+        <v>0</v>
+      </c>
+      <c r="L61" s="10">
+        <v>48.3</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
       <c r="O61" s="1" t="str">
         <f>VLOOKUP(C61,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>Q815353</v>
@@ -13273,47 +13248,51 @@
         <v/>
       </c>
       <c r="W61" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="X61" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="Y61" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
         <v>1084520</v>
       </c>
-      <c r="B62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" t="s">
-        <v>115</v>
-      </c>
-      <c r="D62" t="s">
-        <v>218</v>
-      </c>
-      <c r="E62" t="s">
-        <v>219</v>
-      </c>
-      <c r="H62" t="s">
-        <v>263</v>
-      </c>
-      <c r="I62" t="s">
-        <v>263</v>
-      </c>
-      <c r="J62" t="s">
-        <v>17</v>
-      </c>
-      <c r="K62">
-        <v>100</v>
-      </c>
-      <c r="L62">
-        <v>201.1</v>
-      </c>
+      <c r="B62" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" s="10">
+        <v>0</v>
+      </c>
+      <c r="L62" s="10">
+        <v>46</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
       <c r="O62" s="1" t="str">
         <f>VLOOKUP(C62,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>Q1640043</v>
@@ -13338,61 +13317,65 @@
         <f t="shared" si="0"/>
         <v>Q186487</v>
       </c>
-      <c r="U62" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>ok</v>
-      </c>
-      <c r="V62" s="5" t="str">
+      <c r="U62" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V62" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Mod</v>
       </c>
       <c r="W62" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="X62" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="Y62" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
+      <c r="Z62" t="s">
+        <v>320</v>
+      </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
         <v>1084657</v>
       </c>
-      <c r="B63" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" t="s">
-        <v>117</v>
-      </c>
-      <c r="D63" t="s">
-        <v>220</v>
-      </c>
-      <c r="E63" t="s">
-        <v>221</v>
-      </c>
-      <c r="H63" t="s">
-        <v>263</v>
-      </c>
-      <c r="I63" t="s">
-        <v>263</v>
-      </c>
-      <c r="J63" t="s">
-        <v>17</v>
-      </c>
-      <c r="K63">
-        <v>100</v>
-      </c>
-      <c r="L63">
-        <v>149.5</v>
-      </c>
-      <c r="M63" t="s">
-        <v>222</v>
-      </c>
-      <c r="N63" t="s">
-        <v>223</v>
+      <c r="B63" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" s="10">
+        <v>0</v>
+      </c>
+      <c r="L63" s="10">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="M63" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="O63" s="1" t="str">
         <f>VLOOKUP(C63,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13418,64 +13401,64 @@
         <f t="shared" si="0"/>
         <v>Q7547717</v>
       </c>
-      <c r="U63" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Wrong</v>
-      </c>
-      <c r="V63" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="U63" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V63" s="3" t="str">
+        <f t="shared" ref="V63" si="6">IF(T63&lt;&gt;Q63,"Mod","")</f>
         <v>Mod</v>
       </c>
       <c r="W63" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="X63" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="Y63" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
         <v>1084657</v>
       </c>
-      <c r="B64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" t="s">
-        <v>118</v>
-      </c>
-      <c r="D64" t="s">
-        <v>119</v>
-      </c>
-      <c r="E64" t="s">
-        <v>120</v>
-      </c>
-      <c r="F64" t="s">
-        <v>121</v>
-      </c>
-      <c r="H64" t="s">
-        <v>263</v>
-      </c>
-      <c r="I64" t="s">
-        <v>263</v>
-      </c>
-      <c r="J64" t="s">
-        <v>17</v>
-      </c>
-      <c r="K64">
-        <v>100</v>
-      </c>
-      <c r="L64">
-        <v>159</v>
-      </c>
-      <c r="M64" t="s">
-        <v>122</v>
-      </c>
-      <c r="N64" t="s">
-        <v>123</v>
+      <c r="B64" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" s="10">
+        <v>0</v>
+      </c>
+      <c r="L64" s="10">
+        <v>60.1</v>
+      </c>
+      <c r="M64" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="N64" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="O64" s="1" t="str">
         <f>VLOOKUP(C64,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13510,10 +13493,10 @@
         <v/>
       </c>
       <c r="W64" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="X64" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="Y64" s="3" t="str">
         <f t="shared" si="3"/>
@@ -13521,44 +13504,45 @@
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="A65" s="10">
         <v>1084657</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C65" t="s">
-        <v>124</v>
-      </c>
-      <c r="D65" t="s">
-        <v>125</v>
-      </c>
-      <c r="E65" t="s">
-        <v>126</v>
-      </c>
-      <c r="F65">
+      <c r="D65" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F65" s="10">
         <v>119510333</v>
       </c>
-      <c r="H65" t="s">
-        <v>263</v>
-      </c>
-      <c r="I65" t="s">
-        <v>263</v>
-      </c>
-      <c r="J65" t="s">
-        <v>17</v>
-      </c>
-      <c r="K65">
-        <v>100</v>
-      </c>
-      <c r="L65">
-        <v>219.6</v>
-      </c>
-      <c r="M65" t="s">
-        <v>127</v>
-      </c>
-      <c r="N65" t="s">
-        <v>128</v>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="10">
+        <v>0</v>
+      </c>
+      <c r="L65" s="10">
+        <v>62.3</v>
+      </c>
+      <c r="M65" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="N65" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="O65" s="1" t="str">
         <f>VLOOKUP(C65,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13593,10 +13577,10 @@
         <v/>
       </c>
       <c r="W65" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="X65" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Y65" s="3" t="str">
         <f t="shared" si="3"/>
@@ -13604,30 +13588,36 @@
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="A66" s="10">
         <v>1084657</v>
       </c>
-      <c r="B66" t="s">
-        <v>116</v>
-      </c>
-      <c r="C66" t="s">
-        <v>129</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="B66" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I66" t="s">
-        <v>16</v>
-      </c>
-      <c r="J66" t="s">
-        <v>17</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
+      <c r="K66" s="10">
+        <v>0</v>
+      </c>
+      <c r="L66" s="10">
+        <v>0</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
       <c r="O66" s="1">
         <f>VLOOKUP(C66,[1]Sheet2!$C:$N,3,FALSE)</f>
         <v>0</v>
@@ -13660,53 +13650,51 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
       <c r="Y66" s="3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="A67" s="10">
         <v>1084657</v>
       </c>
-      <c r="B67" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" t="s">
-        <v>130</v>
-      </c>
-      <c r="D67" t="s">
-        <v>289</v>
-      </c>
-      <c r="E67" t="s">
-        <v>290</v>
-      </c>
-      <c r="H67" t="s">
-        <v>263</v>
-      </c>
-      <c r="I67" t="s">
-        <v>263</v>
-      </c>
-      <c r="J67" t="s">
-        <v>17</v>
-      </c>
-      <c r="K67">
-        <v>100</v>
-      </c>
-      <c r="L67">
-        <v>118.4</v>
-      </c>
-      <c r="M67" t="s">
-        <v>291</v>
-      </c>
-      <c r="N67" t="s">
-        <v>292</v>
+      <c r="B67" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J67" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K67" s="10">
+        <v>0</v>
+      </c>
+      <c r="L67" s="10">
+        <v>57</v>
+      </c>
+      <c r="M67" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="N67" s="10" t="s">
+        <v>274</v>
       </c>
       <c r="O67" s="1" t="str">
         <f>VLOOKUP(C67,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13729,25 +13717,24 @@
         <v>Mod</v>
       </c>
       <c r="T67" s="3" t="str">
-        <f t="shared" ref="T67:T104" si="4">E67</f>
-        <v>Q2605789</v>
-      </c>
-      <c r="U67" s="3" t="str">
-        <f t="shared" ref="U67:U104" si="5">R67</f>
-        <v>Wrong</v>
-      </c>
-      <c r="V67" s="5" t="str">
+        <f t="shared" ref="T67:T104" si="7">E67</f>
+        <v>Q880</v>
+      </c>
+      <c r="U67" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V67" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Mod</v>
       </c>
       <c r="W67" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="X67" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="Y67" s="3" t="str">
-        <f t="shared" ref="Y67:Y104" si="6">IF(X67&lt;&gt;E67,"Mod","")</f>
+        <f t="shared" ref="Y67:Y104" si="8">IF(X67&lt;&gt;E67,"Mod","")</f>
         <v/>
       </c>
     </row>
@@ -13756,19 +13743,19 @@
         <v>1084678</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" t="s">
         <v>16</v>
-      </c>
-      <c r="I68" t="s">
-        <v>16</v>
-      </c>
-      <c r="J68" t="s">
-        <v>17</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -13797,25 +13784,19 @@
         <v/>
       </c>
       <c r="T68" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U68" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="U67:U104" si="9">R68</f>
         <v>ok</v>
       </c>
       <c r="V68" s="3" t="str">
-        <f t="shared" ref="V68:V104" si="7">IF(T68&lt;&gt;Q68,"Mod","")</f>
-        <v/>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
+        <f t="shared" ref="V68:V104" si="10">IF(T68&lt;&gt;Q68,"Mod","")</f>
+        <v/>
       </c>
       <c r="Y68" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -13824,31 +13805,34 @@
         <v>1084678</v>
       </c>
       <c r="B69" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D69" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="E69" t="s">
-        <v>278</v>
+        <v>260</v>
+      </c>
+      <c r="F69" t="s">
+        <v>261</v>
       </c>
       <c r="H69" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I69" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K69">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>102.9</v>
+        <v>51.3</v>
       </c>
       <c r="O69" s="1" t="str">
         <f>VLOOKUP(C69,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -13871,25 +13855,25 @@
         <v>Mod</v>
       </c>
       <c r="T69" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Q106205899</v>
+        <f t="shared" si="7"/>
+        <v>Q101072</v>
       </c>
       <c r="U69" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>Wrong</v>
       </c>
       <c r="V69" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Mod</v>
       </c>
       <c r="W69" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="X69" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="Y69" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -13898,19 +13882,19 @@
         <v>1084678</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C70" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H70" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" t="s">
         <v>16</v>
-      </c>
-      <c r="I70" t="s">
-        <v>16</v>
-      </c>
-      <c r="J70" t="s">
-        <v>17</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -13939,25 +13923,19 @@
         <v/>
       </c>
       <c r="T70" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U70" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>ok</v>
       </c>
       <c r="V70" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="Y70" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -13966,19 +13944,19 @@
         <v>1084678</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C71" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H71" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" t="s">
         <v>16</v>
-      </c>
-      <c r="I71" t="s">
-        <v>16</v>
-      </c>
-      <c r="J71" t="s">
-        <v>17</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -14007,25 +13985,19 @@
         <v/>
       </c>
       <c r="T71" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U71" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>ok</v>
       </c>
       <c r="V71" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="Y71" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -14034,37 +14006,33 @@
         <v>1084678</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
-      </c>
-      <c r="D72" t="s">
-        <v>135</v>
-      </c>
-      <c r="E72" t="s">
-        <v>136</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
       <c r="H72" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I72" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K72">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>180.4</v>
+        <v>30.5</v>
       </c>
       <c r="M72" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="N72" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="O72" s="1" t="str">
         <f>VLOOKUP(C72,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14086,26 +14054,19 @@
         <f>VLOOKUP(C72,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v/>
       </c>
-      <c r="T72" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Q134702323</v>
-      </c>
-      <c r="U72" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Wrong</v>
+      <c r="T72" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="V72" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W72" t="s">
-        <v>135</v>
-      </c>
-      <c r="X72" t="s">
-        <v>136</v>
+        <f t="shared" si="10"/>
+        <v>Mod</v>
       </c>
       <c r="Y72" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -14114,31 +14075,31 @@
         <v>1084678</v>
       </c>
       <c r="B73" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" t="s">
         <v>131</v>
       </c>
-      <c r="C73" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" t="s">
-        <v>140</v>
-      </c>
-      <c r="E73" t="s">
-        <v>141</v>
-      </c>
       <c r="H73" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="I73" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="J73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K73">
-        <v>93.3</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>184.2</v>
+        <v>55.9</v>
       </c>
       <c r="O73" s="1" t="str">
         <f>VLOOKUP(C73,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14161,25 +14122,25 @@
         <v/>
       </c>
       <c r="T73" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Q2282401</v>
       </c>
       <c r="U73" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>ok</v>
       </c>
       <c r="V73" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W73" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="X73" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="Y73" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -14188,40 +14149,40 @@
         <v>1086746</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C74" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D74" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="E74" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="F74" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="H74" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I74" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K74">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>144.1</v>
+        <v>49.4</v>
       </c>
       <c r="M74" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="N74" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="O74" s="1">
         <f>VLOOKUP(C74,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14244,25 +14205,24 @@
         <v/>
       </c>
       <c r="T74" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Q725</v>
       </c>
-      <c r="U74" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>ok</v>
-      </c>
-      <c r="V74" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="U74" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V74" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Mod</v>
       </c>
       <c r="W74" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="X74" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="Y74" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -14271,40 +14231,40 @@
         <v>1086746</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C75" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D75" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="E75" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="F75">
         <v>119470591</v>
       </c>
       <c r="H75" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I75" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K75">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>149.80000000000001</v>
+        <v>57.6</v>
       </c>
       <c r="M75" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="N75" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="O75" s="1">
         <f>VLOOKUP(C75,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14327,25 +14287,24 @@
         <v/>
       </c>
       <c r="T75" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Q753</v>
       </c>
-      <c r="U75" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>ok</v>
-      </c>
-      <c r="V75" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="U75" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V75" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Mod</v>
       </c>
       <c r="W75" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="X75" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="Y75" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -14354,40 +14313,40 @@
         <v>1086746</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C76" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D76" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="E76" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="F76" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="H76" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I76" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K76">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>163.80000000000001</v>
+        <v>54</v>
       </c>
       <c r="M76" t="s">
-        <v>224</v>
+        <v>284</v>
       </c>
       <c r="N76" t="s">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="O76" s="1">
         <f>VLOOKUP(C76,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14410,25 +14369,24 @@
         <v/>
       </c>
       <c r="T76" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Q974</v>
-      </c>
-      <c r="U76" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>ok</v>
-      </c>
-      <c r="V76" s="5" t="str">
         <f t="shared" si="7"/>
+        <v>Q1091</v>
+      </c>
+      <c r="U76" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V76" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Mod</v>
       </c>
       <c r="W76" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="X76" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="Y76" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -14437,40 +14395,40 @@
         <v>1086746</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C77" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D77" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="E77" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="F77">
-        <v>118650631</v>
+        <v>119731249</v>
       </c>
       <c r="H77" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I77" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K77">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L77">
-        <v>151.5</v>
+        <v>51.8</v>
       </c>
       <c r="M77" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="N77" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="O77" s="1">
         <f>VLOOKUP(C77,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14493,25 +14451,24 @@
         <v/>
       </c>
       <c r="T77" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Q1065</v>
-      </c>
-      <c r="U77" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>ok</v>
-      </c>
-      <c r="V77" s="5" t="str">
         <f t="shared" si="7"/>
+        <v>Q758</v>
+      </c>
+      <c r="U77" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V77" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Mod</v>
       </c>
       <c r="W77" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="X77" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="Y77" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -14520,40 +14477,40 @@
         <v>1086746</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C78" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D78" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="E78" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="F78" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="H78" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I78" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K78">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L78">
-        <v>146.5</v>
+        <v>50.2</v>
       </c>
       <c r="M78" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="N78" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="O78" s="1">
         <f>VLOOKUP(C78,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14576,25 +14533,24 @@
         <v/>
       </c>
       <c r="T78" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Q925</v>
       </c>
-      <c r="U78" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>ok</v>
-      </c>
-      <c r="V78" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="U78" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V78" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Mod</v>
       </c>
       <c r="W78" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="X78" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="Y78" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -14603,40 +14559,40 @@
         <v>1086746</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C79" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D79" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="E79" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="F79">
         <v>119567697</v>
       </c>
       <c r="H79" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I79" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K79">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L79">
-        <v>157.1</v>
+        <v>51.5</v>
       </c>
       <c r="M79" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="N79" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="O79" s="1">
         <f>VLOOKUP(C79,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14659,25 +14615,24 @@
         <v/>
       </c>
       <c r="T79" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Q708</v>
       </c>
-      <c r="U79" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>ok</v>
-      </c>
-      <c r="V79" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="U79" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V79" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Mod</v>
       </c>
       <c r="W79" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="X79" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="Y79" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -14686,31 +14641,31 @@
         <v>1086746</v>
       </c>
       <c r="B80" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C80" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D80" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E80" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="H80" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I80" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K80">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>165.3</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="O80" s="1" t="str">
         <f>VLOOKUP(C80,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14733,25 +14688,24 @@
         <v>Mod</v>
       </c>
       <c r="T80" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Q105789</v>
       </c>
-      <c r="U80" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Wrong</v>
-      </c>
-      <c r="V80" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="U80" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V80" s="3" t="str">
+        <f t="shared" si="10"/>
         <v>Mod</v>
       </c>
       <c r="W80" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="X80" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="Y80" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -14760,31 +14714,37 @@
         <v>1086746</v>
       </c>
       <c r="B81" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C81" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D81" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E81" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H81" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I81" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K81">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>149.5</v>
+        <v>53.2</v>
+      </c>
+      <c r="M81" t="s">
+        <v>292</v>
+      </c>
+      <c r="N81" t="s">
+        <v>293</v>
       </c>
       <c r="O81" s="1" t="str">
         <f>VLOOKUP(C81,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14807,25 +14767,24 @@
         <v/>
       </c>
       <c r="T81" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Q271855</v>
-      </c>
-      <c r="U81" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Wrong</v>
-      </c>
-      <c r="V81" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Mod</v>
+        <v>Q41263</v>
+      </c>
+      <c r="U81" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V81" s="3" t="str">
+        <f t="shared" ref="V81" si="11">IF(T81&lt;&gt;Q81,"Mod","")</f>
+        <v/>
       </c>
       <c r="W81" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="X81" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Y81" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -14834,37 +14793,37 @@
         <v>1086746</v>
       </c>
       <c r="B82" t="s">
+        <v>132</v>
+      </c>
+      <c r="C82" t="s">
         <v>142</v>
       </c>
-      <c r="C82" t="s">
-        <v>152</v>
-      </c>
       <c r="D82" t="s">
-        <v>298</v>
+        <v>228</v>
       </c>
       <c r="E82" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="H82" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I82" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K82">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>148.69999999999999</v>
+        <v>58.2</v>
       </c>
       <c r="M82" t="s">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="N82" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="O82" s="1" t="str">
         <f>VLOOKUP(C82,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14887,25 +14846,24 @@
         <v>Mod</v>
       </c>
       <c r="T82" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Q130912</v>
       </c>
-      <c r="U82" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>ok</v>
+      <c r="U82" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="V82" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Mod</v>
       </c>
       <c r="W82" t="s">
-        <v>298</v>
+        <v>228</v>
       </c>
       <c r="X82" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="Y82" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -14914,40 +14872,37 @@
         <v>1086746</v>
       </c>
       <c r="B83" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C83" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D83" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="E83" t="s">
-        <v>303</v>
-      </c>
-      <c r="F83" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="H83" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I83" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K83">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>129.6</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="M83" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="N83" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="O83" s="1" t="str">
         <f>VLOOKUP(C83,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -14970,25 +14925,25 @@
         <v>Mod</v>
       </c>
       <c r="T83" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Q355304</v>
+        <f t="shared" si="7"/>
+        <v>Q4022</v>
       </c>
       <c r="U83" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>ok</v>
-      </c>
-      <c r="V83" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Mod</v>
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="V83" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="W83" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="X83" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="Y83" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -14997,37 +14952,37 @@
         <v>1086746</v>
       </c>
       <c r="B84" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C84" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D84" t="s">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="E84" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="H84" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I84" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K84">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L84">
-        <v>119.3</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="M84" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="N84" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="O84" s="1" t="str">
         <f>VLOOKUP(C84,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -15050,25 +15005,24 @@
         <v>Mod</v>
       </c>
       <c r="T84" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Q1440626</v>
-      </c>
-      <c r="U84" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Wrong</v>
+        <f t="shared" si="7"/>
+        <v>Q6854084</v>
+      </c>
+      <c r="U84" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="V84" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>Mod</v>
       </c>
       <c r="W84" t="s">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="X84" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="Y84" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15077,25 +15031,33 @@
         <v>1086752</v>
       </c>
       <c r="B85" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C85" t="s">
-        <v>156</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
       <c r="H85" t="s">
+        <v>240</v>
+      </c>
+      <c r="I85" t="s">
+        <v>240</v>
+      </c>
+      <c r="J85" t="s">
         <v>16</v>
       </c>
-      <c r="I85" t="s">
-        <v>16</v>
-      </c>
-      <c r="J85" t="s">
-        <v>17</v>
-      </c>
       <c r="K85">
         <v>0</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>11.6</v>
+      </c>
+      <c r="M85" t="s">
+        <v>301</v>
+      </c>
+      <c r="N85" t="s">
+        <v>302</v>
       </c>
       <c r="O85" s="1">
         <f>VLOOKUP(C85,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -15118,25 +15080,18 @@
         <v/>
       </c>
       <c r="T85" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U85" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>ok</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U85" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="V85" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W85">
-        <v>0</v>
-      </c>
-      <c r="X85">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="Y85" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15145,19 +15100,19 @@
         <v>1086752</v>
       </c>
       <c r="B86" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C86" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H86" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" t="s">
         <v>16</v>
-      </c>
-      <c r="I86" t="s">
-        <v>16</v>
-      </c>
-      <c r="J86" t="s">
-        <v>17</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -15186,25 +15141,19 @@
         <v>Mod</v>
       </c>
       <c r="T86" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U86" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>ok</v>
       </c>
       <c r="V86" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W86">
-        <v>0</v>
-      </c>
-      <c r="X86">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="Y86" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15213,19 +15162,19 @@
         <v>1086752</v>
       </c>
       <c r="B87" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C87" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H87" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" t="s">
         <v>16</v>
-      </c>
-      <c r="I87" t="s">
-        <v>16</v>
-      </c>
-      <c r="J87" t="s">
-        <v>17</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -15254,25 +15203,19 @@
         <v/>
       </c>
       <c r="T87" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U87" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>ok</v>
       </c>
       <c r="V87" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W87">
-        <v>0</v>
-      </c>
-      <c r="X87">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="Y87" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15281,31 +15224,34 @@
         <v>1086752</v>
       </c>
       <c r="B88" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C88" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D88" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="E88" t="s">
-        <v>248</v>
+        <v>304</v>
+      </c>
+      <c r="F88" t="s">
+        <v>305</v>
       </c>
       <c r="H88" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I88" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K88">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="O88" s="1" t="str">
         <f>VLOOKUP(C88,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -15328,25 +15274,25 @@
         <v/>
       </c>
       <c r="T88" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Q11781028</v>
+        <f t="shared" si="7"/>
+        <v>Q351792</v>
       </c>
       <c r="U88" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>ok</v>
-      </c>
-      <c r="V88" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>Mod</v>
+        <f t="shared" si="9"/>
+        <v>ok</v>
+      </c>
+      <c r="V88" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="W88" t="s">
-        <v>247</v>
+        <v>303</v>
       </c>
       <c r="X88" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="Y88" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15355,19 +15301,19 @@
         <v>1087358</v>
       </c>
       <c r="B89" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C89" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H89" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" t="s">
         <v>16</v>
-      </c>
-      <c r="I89" t="s">
-        <v>16</v>
-      </c>
-      <c r="J89" t="s">
-        <v>17</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -15396,25 +15342,19 @@
         <v/>
       </c>
       <c r="T89" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U89" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>ok</v>
       </c>
       <c r="V89" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W89">
-        <v>0</v>
-      </c>
-      <c r="X89">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="Y89" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15423,31 +15363,31 @@
         <v>1087358</v>
       </c>
       <c r="B90" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C90" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D90" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="E90" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="H90" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I90" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K90">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>132.6</v>
+        <v>47.4</v>
       </c>
       <c r="O90" s="1">
         <f>VLOOKUP(C90,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -15470,25 +15410,24 @@
         <v/>
       </c>
       <c r="T90" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Q1570979</v>
       </c>
-      <c r="U90" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>ok</v>
-      </c>
-      <c r="V90" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="U90" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V90" s="3" t="str">
+        <f t="shared" ref="V90" si="12">IF(T90&lt;&gt;Q90,"Mod","")</f>
         <v>Mod</v>
       </c>
       <c r="W90" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="X90" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="Y90" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15497,19 +15436,19 @@
         <v>1087358</v>
       </c>
       <c r="B91" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C91" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="H91" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" t="s">
         <v>16</v>
-      </c>
-      <c r="I91" t="s">
-        <v>16</v>
-      </c>
-      <c r="J91" t="s">
-        <v>17</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -15538,25 +15477,19 @@
         <v/>
       </c>
       <c r="T91" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U91" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>ok</v>
       </c>
       <c r="V91" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
-      <c r="X91">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="Y91" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15565,19 +15498,19 @@
         <v>1087358</v>
       </c>
       <c r="B92" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C92" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H92" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" t="s">
         <v>16</v>
-      </c>
-      <c r="I92" t="s">
-        <v>16</v>
-      </c>
-      <c r="J92" t="s">
-        <v>17</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -15606,25 +15539,19 @@
         <v/>
       </c>
       <c r="T92" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U92" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>ok</v>
       </c>
       <c r="V92" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W92">
-        <v>0</v>
-      </c>
-      <c r="X92">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="Y92" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15633,37 +15560,37 @@
         <v>1087358</v>
       </c>
       <c r="B93" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C93" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D93" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="E93" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="H93" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I93" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K93">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L93">
-        <v>137.30000000000001</v>
+        <v>49.7</v>
       </c>
       <c r="M93" t="s">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="N93" t="s">
-        <v>128</v>
+        <v>309</v>
       </c>
       <c r="O93" s="1" t="str">
         <f>VLOOKUP(C93,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -15686,25 +15613,24 @@
         <v/>
       </c>
       <c r="T93" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Q185006</v>
-      </c>
-      <c r="U93" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Wrong</v>
+        <f t="shared" si="7"/>
+        <v>Q284964</v>
+      </c>
+      <c r="U93" s="11" t="s">
+        <v>321</v>
       </c>
       <c r="V93" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="V93:V94" si="13">IF(T93&lt;&gt;Q93,"Mod","")</f>
         <v>Mod</v>
       </c>
       <c r="W93" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="X93" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="Y93" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15713,37 +15639,37 @@
         <v>1087358</v>
       </c>
       <c r="B94" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C94" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D94" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="E94" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="H94" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I94" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K94">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>113.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="M94" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="N94" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="O94" s="1">
         <f>VLOOKUP(C94,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -15766,25 +15692,24 @@
         <v/>
       </c>
       <c r="T94" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Q185006</v>
       </c>
-      <c r="U94" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>ok</v>
-      </c>
-      <c r="V94" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="U94" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V94" s="3" t="str">
+        <f t="shared" si="13"/>
         <v>Mod</v>
       </c>
       <c r="W94" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="X94" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="Y94" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15793,19 +15718,19 @@
         <v>1088019</v>
       </c>
       <c r="B95" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C95" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="H95" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" t="s">
         <v>16</v>
-      </c>
-      <c r="I95" t="s">
-        <v>16</v>
-      </c>
-      <c r="J95" t="s">
-        <v>17</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -15834,25 +15759,19 @@
         <v/>
       </c>
       <c r="T95" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U95" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>ok</v>
       </c>
       <c r="V95" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W95">
-        <v>0</v>
-      </c>
-      <c r="X95">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="Y95" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15861,19 +15780,19 @@
         <v>1088019</v>
       </c>
       <c r="B96" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C96" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H96" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" t="s">
         <v>16</v>
-      </c>
-      <c r="I96" t="s">
-        <v>16</v>
-      </c>
-      <c r="J96" t="s">
-        <v>17</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -15902,25 +15821,19 @@
         <v/>
       </c>
       <c r="T96" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U96" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>ok</v>
       </c>
       <c r="V96" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
-      <c r="X96">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="Y96" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15929,34 +15842,33 @@
         <v>1088019</v>
       </c>
       <c r="B97" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C97" t="s">
-        <v>170</v>
-      </c>
-      <c r="D97" t="s">
-        <v>253</v>
-      </c>
-      <c r="E97" t="s">
-        <v>254</v>
-      </c>
-      <c r="F97" t="s">
-        <v>255</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
       <c r="H97" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="I97" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="J97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K97">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L97">
-        <v>182.9</v>
+        <v>11.3</v>
+      </c>
+      <c r="M97" t="s">
+        <v>310</v>
+      </c>
+      <c r="N97" t="s">
+        <v>311</v>
       </c>
       <c r="O97" s="1">
         <f>VLOOKUP(C97,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -15978,26 +15890,19 @@
         <f>VLOOKUP(C97,[2]Wikidata_upec_chemical_20!$C:$U,15,FALSE)</f>
         <v/>
       </c>
-      <c r="T97" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Q5725005</v>
-      </c>
-      <c r="U97" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>ok</v>
-      </c>
-      <c r="V97" s="5" t="str">
+      <c r="T97" s="3">
         <f t="shared" si="7"/>
-        <v>Mod</v>
-      </c>
-      <c r="W97" t="s">
-        <v>253</v>
-      </c>
-      <c r="X97" t="s">
-        <v>254</v>
+        <v>0</v>
+      </c>
+      <c r="U97" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V97" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="Y97" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -16006,19 +15911,19 @@
         <v>1088019</v>
       </c>
       <c r="B98" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C98" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="H98" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" t="s">
         <v>16</v>
-      </c>
-      <c r="I98" t="s">
-        <v>16</v>
-      </c>
-      <c r="J98" t="s">
-        <v>17</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -16047,25 +15952,19 @@
         <v/>
       </c>
       <c r="T98" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U98" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>ok</v>
       </c>
       <c r="V98" s="3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W98">
-        <v>0</v>
-      </c>
-      <c r="X98">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="Y98" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -16074,31 +15973,31 @@
         <v>1088019</v>
       </c>
       <c r="B99" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C99" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D99" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E99" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H99" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I99" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K99">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>131.9</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="O99" s="1" t="str">
         <f>VLOOKUP(C99,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -16121,25 +16020,25 @@
         <v/>
       </c>
       <c r="T99" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Q1778729</v>
       </c>
       <c r="U99" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>ok</v>
       </c>
       <c r="V99" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W99" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="X99" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="Y99" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -16148,40 +16047,40 @@
         <v>1088019</v>
       </c>
       <c r="B100" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" t="s">
+        <v>165</v>
+      </c>
+      <c r="D100" t="s">
+        <v>166</v>
+      </c>
+      <c r="E100" t="s">
         <v>167</v>
-      </c>
-      <c r="C100" t="s">
-        <v>175</v>
-      </c>
-      <c r="D100" t="s">
-        <v>176</v>
-      </c>
-      <c r="E100" t="s">
-        <v>177</v>
       </c>
       <c r="F100">
         <v>119328276</v>
       </c>
       <c r="H100" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I100" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K100">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>124.7</v>
+        <v>56</v>
       </c>
       <c r="M100" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="N100" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="O100" s="1" t="str">
         <f>VLOOKUP(C100,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -16204,25 +16103,25 @@
         <v>Mod</v>
       </c>
       <c r="T100" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Q81163</v>
       </c>
       <c r="U100" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>ok</v>
       </c>
       <c r="V100" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W100" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="X100" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="Y100" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -16231,31 +16130,31 @@
         <v>1088019</v>
       </c>
       <c r="B101" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C101" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D101" t="s">
-        <v>256</v>
+        <v>312</v>
       </c>
       <c r="E101" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="H101" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="I101" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="J101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K101">
-        <v>94.7</v>
+        <v>0</v>
       </c>
       <c r="L101">
-        <v>93.2</v>
+        <v>27.1</v>
       </c>
       <c r="O101" s="1" t="str">
         <f>VLOOKUP(C101,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -16278,25 +16177,24 @@
         <v>Mod</v>
       </c>
       <c r="T101" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Q17853087</v>
-      </c>
-      <c r="U101" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>ok</v>
-      </c>
-      <c r="V101" s="5" t="str">
         <f t="shared" si="7"/>
+        <v>Q66539734</v>
+      </c>
+      <c r="U101" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="V101" s="3" t="str">
+        <f t="shared" ref="V101" si="14">IF(T101&lt;&gt;Q101,"Mod","")</f>
         <v>Mod</v>
       </c>
       <c r="W101" t="s">
-        <v>256</v>
+        <v>312</v>
       </c>
       <c r="X101" t="s">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="Y101" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -16305,40 +16203,31 @@
         <v>1088019</v>
       </c>
       <c r="B102" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C102" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D102" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="E102" t="s">
-        <v>259</v>
-      </c>
-      <c r="F102" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="H102" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="I102" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="J102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K102">
-        <v>92.3</v>
+        <v>0</v>
       </c>
       <c r="L102">
-        <v>102.6</v>
-      </c>
-      <c r="M102" t="s">
-        <v>261</v>
-      </c>
-      <c r="N102" t="s">
-        <v>262</v>
+        <v>39.4</v>
       </c>
       <c r="O102" s="1" t="str">
         <f>VLOOKUP(C102,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -16361,25 +16250,24 @@
         <v/>
       </c>
       <c r="T102" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Q10874</v>
-      </c>
-      <c r="U102" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Wrong</v>
-      </c>
-      <c r="V102" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>Mod</v>
+        <v>Q12055133</v>
+      </c>
+      <c r="U102" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="V102" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="W102" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="X102" t="s">
-        <v>259</v>
+        <v>315</v>
       </c>
       <c r="Y102" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -16388,34 +16276,34 @@
         <v>1088019</v>
       </c>
       <c r="B103" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C103" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D103" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E103" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F103" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H103" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I103" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K103">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L103">
-        <v>231.9</v>
+        <v>70</v>
       </c>
       <c r="O103" s="1" t="str">
         <f>VLOOKUP(C103,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -16438,25 +16326,25 @@
         <v/>
       </c>
       <c r="T103" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Q61231</v>
       </c>
       <c r="U103" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>ok</v>
       </c>
       <c r="V103" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W103" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="X103" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="Y103" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -16465,34 +16353,37 @@
         <v>1088019</v>
       </c>
       <c r="B104" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C104" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D104" t="s">
-        <v>187</v>
+        <v>316</v>
       </c>
       <c r="E104" t="s">
-        <v>188</v>
-      </c>
-      <c r="F104">
-        <v>119788740</v>
+        <v>317</v>
       </c>
       <c r="H104" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="I104" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="J104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K104">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L104">
-        <v>167.6</v>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="M104" t="s">
+        <v>318</v>
+      </c>
+      <c r="N104" t="s">
+        <v>319</v>
       </c>
       <c r="O104" s="1" t="str">
         <f>VLOOKUP(C104,[1]Sheet2!$C:$N,3,FALSE)</f>
@@ -16515,25 +16406,24 @@
         <v/>
       </c>
       <c r="T104" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>Q284256</v>
-      </c>
-      <c r="U104" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>ok</v>
-      </c>
-      <c r="V104" s="3" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>Q3002827</v>
+      </c>
+      <c r="U104" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="V104" s="5" t="str">
+        <f t="shared" si="10"/>
+        <v>Mod</v>
       </c>
       <c r="W104" t="s">
-        <v>187</v>
+        <v>316</v>
       </c>
       <c r="X104" t="s">
-        <v>188</v>
+        <v>317</v>
       </c>
       <c r="Y104" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -16548,7 +16438,7 @@
       </c>
       <c r="U106">
         <f>COUNTIF(U2:U104,"Wrong")</f>
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
